--- a/EdFiXTranscript/MetaEdOutput/Documentation/DataDictionary/XmlDataDictionary.xlsx
+++ b/EdFiXTranscript/MetaEdOutput/Documentation/DataDictionary/XmlDataDictionary.xlsx
@@ -1653,192 +1653,192 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>AlternativeAssigningOrganizationIdentificationCode</v>
+        <v>AlternativeCourseCode</v>
       </c>
       <c r="B74" t="str">
-        <v>IdentificationCode</v>
+        <v>LocalCourseCode</v>
       </c>
       <c r="C74" t="str">
-        <v>EXTENSION-AlternativeCourseIdentificationCode</v>
+        <v>CourseTranscript</v>
       </c>
       <c r="D74" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E74" t="str">
-        <v>The organization code or name assigning the Identification Code.</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>The local code assigned by the school that identifies the course offering, the code from an external educational organization, or other alternate course code.</v>
+      </c>
+    </row>
+    <row r="75" xml:space="preserve">
       <c r="A75" t="str">
-        <v>AlternativeCourseCatalogURL</v>
+        <v>AlternativeCourseIdentificationCode</v>
       </c>
       <c r="B75" t="str">
-        <v>CourseCatalogURL</v>
+        <v>CourseIdentificationCode</v>
       </c>
       <c r="C75" t="str">
-        <v>EXTENSION-AlternativeCourseIdentificationCode</v>
-      </c>
-      <c r="D75" t="str">
-        <v>minOccurs: 0</v>
-      </c>
-      <c r="E75" t="str">
-        <v>The URL for the course catalog that defines the course identification code.</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="str">
-        <v>AlternativeCourseCode</v>
-      </c>
-      <c r="B76" t="str">
-        <v>LocalCourseCode</v>
-      </c>
-      <c r="C76" t="str">
         <v>CourseTranscript</v>
       </c>
-      <c r="D76" t="str">
-        <v>minOccurs: 0</v>
-      </c>
-      <c r="E76" t="str">
-        <v>The local code assigned by the school that identifies the course offering, the code from an external educational organization, or other alternate course code.</v>
-      </c>
-    </row>
-    <row r="77" xml:space="preserve">
-      <c r="A77" t="str">
-        <v>AlternativeCourseIdentificationCode</v>
-      </c>
-      <c r="B77" t="str">
-        <v>CourseIdentificationCode</v>
-      </c>
-      <c r="C77" t="str">
-        <v>CourseTranscript</v>
-      </c>
-      <c r="D77" t="str" xml:space="preserve">
+      <c r="D75" t="str" xml:space="preserve">
         <v xml:space="preserve">minOccurs: 0
 maxOccurs: unbounded</v>
       </c>
-      <c r="E77" t="str">
+      <c r="E75" t="str">
         <v>The code that identifies the course, course offering, the code from an external educational organization, or other alternate course code.</v>
       </c>
     </row>
-    <row r="78" xml:space="preserve">
-      <c r="A78" t="str">
+    <row r="76" xml:space="preserve">
+      <c r="A76" t="str">
         <v>AlternativeCourseIdentificationCode</v>
       </c>
-      <c r="B78" t="str">
+      <c r="B76" t="str">
         <v>EXTENSION-AlternativeCourseIdentificationCode</v>
       </c>
-      <c r="C78" t="str">
+      <c r="C76" t="str">
         <v>EXTENSION-CourseTranscript</v>
       </c>
-      <c r="D78" t="str" xml:space="preserve">
+      <c r="D76" t="str" xml:space="preserve">
         <v xml:space="preserve">minOccurs: 0
 maxOccurs: unbounded</v>
       </c>
+      <c r="E76" t="str">
+        <v>The code that identifies the course, course offering, the code from an external educational organization, or other alternate course code.</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="str">
+        <v>AlternativeCourseIdentificationSystem</v>
+      </c>
+      <c r="B77" t="str">
+        <v>CourseIdentificationSystemDescriptorReferenceType</v>
+      </c>
+      <c r="C77" t="str">
+        <v>EXTENSION-AlternativeCourseIdentificationCode</v>
+      </c>
+      <c r="D77" t="str">
+        <v/>
+      </c>
+      <c r="E77" t="str">
+        <v>A system that is used to identify the organization of subject matter and related learning experiences provided for the instruction of students.</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="str">
+        <v>AlternativeCourseTitle</v>
+      </c>
+      <c r="B78" t="str">
+        <v>CourseTitle</v>
+      </c>
+      <c r="C78" t="str">
+        <v>CourseTranscript</v>
+      </c>
+      <c r="D78" t="str">
+        <v>minOccurs: 0</v>
+      </c>
       <c r="E78" t="str">
-        <v>The code that identifies the course, course offering, the code from an external educational organization, or other alternate course code.</v>
+        <v>The descriptive name given to a course of study offered in the school, if different from the CourseTitle.</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>AlternativeCourseIdentificationSystem</v>
+        <v>AlternativeCourseTitle</v>
       </c>
       <c r="B79" t="str">
-        <v>CourseIdentificationSystemDescriptorReferenceType</v>
+        <v>CourseTitle</v>
       </c>
       <c r="C79" t="str">
-        <v>EXTENSION-AlternativeCourseIdentificationCode</v>
+        <v>EXTENSION-CourseTranscript</v>
       </c>
       <c r="D79" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E79" t="str">
-        <v>A system that is used to identify the organization of subject matter and related learning experiences provided for the instruction of students.</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>The descriptive name given to a course of study offered in the school, if different from the CourseTitle.</v>
+      </c>
+    </row>
+    <row r="80" xml:space="preserve">
       <c r="A80" t="str">
-        <v>AlternativeCourseTitle</v>
+        <v>AlternativeGraduationPlanReference</v>
       </c>
       <c r="B80" t="str">
-        <v>CourseTitle</v>
+        <v>GraduationPlanReferenceType</v>
       </c>
       <c r="C80" t="str">
-        <v>CourseTranscript</v>
-      </c>
-      <c r="D80" t="str">
-        <v>minOccurs: 0</v>
+        <v>StudentSchoolAssociation</v>
+      </c>
+      <c r="D80" t="str" xml:space="preserve">
+        <v xml:space="preserve">minOccurs: 0
+maxOccurs: unbounded</v>
       </c>
       <c r="E80" t="str">
-        <v>The descriptive name given to a course of study offered in the school, if different from the CourseTitle.</v>
+        <v>The secondary graduation plan or plans associated with the student enrolled in the school.</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>AlternativeCourseTitle</v>
+        <v>AlternativeIdentificationCode</v>
       </c>
       <c r="B81" t="str">
-        <v>CourseTitle</v>
+        <v>IdentificationCode</v>
       </c>
       <c r="C81" t="str">
-        <v>EXTENSION-CourseTranscript</v>
+        <v>EXTENSION-AlternativeCourseIdentificationCode</v>
       </c>
       <c r="D81" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E81" t="str">
-        <v>The descriptive name given to a course of study offered in the school, if different from the CourseTitle.</v>
-      </c>
-    </row>
-    <row r="82" xml:space="preserve">
+        <v>A unique number or alphanumeric code assigned to a course by a school, school system, state, or other agency or entity. For multi-part course codes, concatenate the parts separated by a "/". For example, consider the following SCED code-    subject = 20 Math    course = 272 Geometry    level = G General    credits = 1.00   course sequence 1 of 1- would be entered as 20/272/G/1.00/1 of 1.</v>
+      </c>
+    </row>
+    <row r="82">
       <c r="A82" t="str">
-        <v>AlternativeGraduationPlanReference</v>
+        <v>Amount</v>
       </c>
       <c r="B82" t="str">
-        <v>GraduationPlanReferenceType</v>
+        <v>Currency</v>
       </c>
       <c r="C82" t="str">
-        <v>StudentSchoolAssociation</v>
-      </c>
-      <c r="D82" t="str" xml:space="preserve">
-        <v xml:space="preserve">minOccurs: 0
-maxOccurs: unbounded</v>
+        <v>Budget</v>
+      </c>
+      <c r="D82" t="str">
+        <v/>
       </c>
       <c r="E82" t="str">
-        <v>The secondary graduation plan or plans associated with the student enrolled in the school.</v>
+        <v>Amount budgeted for the account for this fiscal year.</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>AlternativeIdentificationCode</v>
+        <v>AmountToDate</v>
       </c>
       <c r="B83" t="str">
-        <v>IdentificationCode</v>
+        <v>Currency</v>
       </c>
       <c r="C83" t="str">
-        <v>EXTENSION-AlternativeCourseIdentificationCode</v>
+        <v>Actual</v>
       </c>
       <c r="D83" t="str">
         <v/>
       </c>
       <c r="E83" t="str">
-        <v>A unique number or alphanumeric code assigned to a course by a school, school system, state, or other agency or entity. For multi-part course codes, concatenate the parts separated by a "/". For example, consider the following SCED code-    subject = 20 Math    course = 272 Geometry    level = G General    credits = 1.00   course sequence 1 of 1- would be entered as 20/272/G/1.00/1 of 1.</v>
+        <v>Current balance for the account.</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Amount</v>
+        <v>AmountToDate</v>
       </c>
       <c r="B84" t="str">
         <v>Currency</v>
       </c>
       <c r="C84" t="str">
-        <v>Budget</v>
+        <v>ContractedStaff</v>
       </c>
       <c r="D84" t="str">
         <v/>
       </c>
       <c r="E84" t="str">
-        <v>Amount budgeted for the account for this fiscal year.</v>
+        <v>Current balance (amount paid to contractor) for account for the fiscal year.</v>
       </c>
     </row>
     <row r="85">
@@ -1849,64 +1849,66 @@
         <v>Currency</v>
       </c>
       <c r="C85" t="str">
-        <v>Actual</v>
+        <v>Payroll</v>
       </c>
       <c r="D85" t="str">
         <v/>
       </c>
       <c r="E85" t="str">
-        <v>Current balance for the account.</v>
+        <v>Current balance (amount paid to employee) for account for the fiscal year.</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>AmountToDate</v>
+        <v>ApartmentRoomSuiteNumber</v>
       </c>
       <c r="B86" t="str">
-        <v>Currency</v>
+        <v>ApartmentRoomSuiteNumber</v>
       </c>
       <c r="C86" t="str">
-        <v>ContractedStaff</v>
+        <v>Address</v>
       </c>
       <c r="D86" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E86" t="str">
-        <v>Current balance (amount paid to contractor) for account for the fiscal year.</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>The apartment, room, or suite number of an address.</v>
+      </c>
+    </row>
+    <row r="87" xml:space="preserve">
       <c r="A87" t="str">
-        <v>AmountToDate</v>
+        <v>AppropriateGradeLevel</v>
       </c>
       <c r="B87" t="str">
-        <v>Currency</v>
+        <v>GradeLevelDescriptorReferenceType</v>
       </c>
       <c r="C87" t="str">
-        <v>Payroll</v>
-      </c>
-      <c r="D87" t="str">
-        <v/>
+        <v>Intervention</v>
+      </c>
+      <c r="D87" t="str" xml:space="preserve">
+        <v xml:space="preserve">minOccurs: 0
+maxOccurs: unbounded</v>
       </c>
       <c r="E87" t="str">
-        <v>Current balance (amount paid to employee) for account for the fiscal year.</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>Grade levels for the Intervention-if omitted, considered generally applicable.</v>
+      </c>
+    </row>
+    <row r="88" xml:space="preserve">
       <c r="A88" t="str">
-        <v>ApartmentRoomSuiteNumber</v>
+        <v>AppropriateGradeLevel</v>
       </c>
       <c r="B88" t="str">
-        <v>ApartmentRoomSuiteNumber</v>
+        <v>GradeLevelDescriptorReferenceType</v>
       </c>
       <c r="C88" t="str">
-        <v>Address</v>
-      </c>
-      <c r="D88" t="str">
-        <v>minOccurs: 0</v>
+        <v>InterventionPrescription</v>
+      </c>
+      <c r="D88" t="str" xml:space="preserve">
+        <v xml:space="preserve">minOccurs: 0
+maxOccurs: unbounded</v>
       </c>
       <c r="E88" t="str">
-        <v>The apartment, room, or suite number of an address.</v>
+        <v>Grade levels for the prescribed intervention. If omitted, considered generally applicable.</v>
       </c>
     </row>
     <row r="89" xml:space="preserve">
@@ -1917,14 +1919,14 @@
         <v>GradeLevelDescriptorReferenceType</v>
       </c>
       <c r="C89" t="str">
-        <v>Intervention</v>
+        <v>InterventionStudy</v>
       </c>
       <c r="D89" t="str" xml:space="preserve">
         <v xml:space="preserve">minOccurs: 0
 maxOccurs: unbounded</v>
       </c>
       <c r="E89" t="str">
-        <v>Grade levels for the Intervention-if omitted, considered generally applicable.</v>
+        <v>Grade levels participating in this study.</v>
       </c>
     </row>
     <row r="90" xml:space="preserve">
@@ -1935,50 +1937,50 @@
         <v>GradeLevelDescriptorReferenceType</v>
       </c>
       <c r="C90" t="str">
-        <v>InterventionPrescription</v>
+        <v>LearningResource</v>
       </c>
       <c r="D90" t="str" xml:space="preserve">
         <v xml:space="preserve">minOccurs: 0
 maxOccurs: unbounded</v>
       </c>
       <c r="E90" t="str">
-        <v>Grade levels for the prescribed intervention. If omitted, considered generally applicable.</v>
+        <v>Grade levels for which this education content is applicable-if omitted, considered generally applicable.</v>
       </c>
     </row>
     <row r="91" xml:space="preserve">
       <c r="A91" t="str">
-        <v>AppropriateGradeLevel</v>
+        <v>AppropriateSex</v>
       </c>
       <c r="B91" t="str">
-        <v>GradeLevelDescriptorReferenceType</v>
+        <v>SexDescriptorReferenceType</v>
       </c>
       <c r="C91" t="str">
-        <v>InterventionStudy</v>
+        <v>Intervention</v>
       </c>
       <c r="D91" t="str" xml:space="preserve">
         <v xml:space="preserve">minOccurs: 0
 maxOccurs: unbounded</v>
       </c>
       <c r="E91" t="str">
-        <v>Grade levels participating in this study.</v>
+        <v>Sexes for the Intervention. If omitted, considered generally applicable.</v>
       </c>
     </row>
     <row r="92" xml:space="preserve">
       <c r="A92" t="str">
-        <v>AppropriateGradeLevel</v>
+        <v>AppropriateSex</v>
       </c>
       <c r="B92" t="str">
-        <v>GradeLevelDescriptorReferenceType</v>
+        <v>SexDescriptorReferenceType</v>
       </c>
       <c r="C92" t="str">
-        <v>LearningResource</v>
+        <v>InterventionPrescription</v>
       </c>
       <c r="D92" t="str" xml:space="preserve">
         <v xml:space="preserve">minOccurs: 0
 maxOccurs: unbounded</v>
       </c>
       <c r="E92" t="str">
-        <v>Grade levels for which this education content is applicable-if omitted, considered generally applicable.</v>
+        <v>Sexes for the InterventionPrescription. If omitted, considered generally applicable.</v>
       </c>
     </row>
     <row r="93" xml:space="preserve">
@@ -1989,14 +1991,14 @@
         <v>SexDescriptorReferenceType</v>
       </c>
       <c r="C93" t="str">
-        <v>Intervention</v>
+        <v>InterventionStudy</v>
       </c>
       <c r="D93" t="str" xml:space="preserve">
         <v xml:space="preserve">minOccurs: 0
 maxOccurs: unbounded</v>
       </c>
       <c r="E93" t="str">
-        <v>Sexes for the Intervention. If omitted, considered generally applicable.</v>
+        <v>Sexes participating in this study. If omitted, considered generally applicable.</v>
       </c>
     </row>
     <row r="94" xml:space="preserve">
@@ -2007,84 +2009,82 @@
         <v>SexDescriptorReferenceType</v>
       </c>
       <c r="C94" t="str">
-        <v>InterventionPrescription</v>
+        <v>LearningResource</v>
       </c>
       <c r="D94" t="str" xml:space="preserve">
         <v xml:space="preserve">minOccurs: 0
 maxOccurs: unbounded</v>
       </c>
       <c r="E94" t="str">
-        <v>Sexes for the InterventionPrescription. If omitted, considered generally applicable.</v>
-      </c>
-    </row>
-    <row r="95" xml:space="preserve">
+        <v>Sexes for which this education content is applicable. If omitted, considered generally applicable.</v>
+      </c>
+    </row>
+    <row r="95">
       <c r="A95" t="str">
-        <v>AppropriateSex</v>
+        <v>ArrivalTime</v>
       </c>
       <c r="B95" t="str">
-        <v>SexDescriptorReferenceType</v>
+        <v>xs:time</v>
       </c>
       <c r="C95" t="str">
-        <v>InterventionStudy</v>
-      </c>
-      <c r="D95" t="str" xml:space="preserve">
-        <v xml:space="preserve">minOccurs: 0
-maxOccurs: unbounded</v>
+        <v>StudentSchoolAttendanceEvent</v>
+      </c>
+      <c r="D95" t="str">
+        <v>minOccurs: 0</v>
       </c>
       <c r="E95" t="str">
-        <v>Sexes participating in this study. If omitted, considered generally applicable.</v>
-      </c>
-    </row>
-    <row r="96" xml:space="preserve">
+        <v>The time of day the student arrived for the attendance event in ISO 8601 format.</v>
+      </c>
+    </row>
+    <row r="96">
       <c r="A96" t="str">
-        <v>AppropriateSex</v>
+        <v>ArrivalTime</v>
       </c>
       <c r="B96" t="str">
-        <v>SexDescriptorReferenceType</v>
+        <v>xs:time</v>
       </c>
       <c r="C96" t="str">
-        <v>LearningResource</v>
-      </c>
-      <c r="D96" t="str" xml:space="preserve">
-        <v xml:space="preserve">minOccurs: 0
-maxOccurs: unbounded</v>
+        <v>StudentSectionAttendanceEvent</v>
+      </c>
+      <c r="D96" t="str">
+        <v>minOccurs: 0</v>
       </c>
       <c r="E96" t="str">
-        <v>Sexes for which this education content is applicable. If omitted, considered generally applicable.</v>
+        <v>The time of day the student arrived for the attendance event in ISO 8601 format.</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>ArrivalTime</v>
+        <v>AsOfDate</v>
       </c>
       <c r="B97" t="str">
-        <v>xs:time</v>
+        <v>xs:date</v>
       </c>
       <c r="C97" t="str">
-        <v>StudentSchoolAttendanceEvent</v>
+        <v>Actual</v>
       </c>
       <c r="D97" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E97" t="str">
-        <v>The time of day the student arrived for the attendance event in ISO 8601 format.</v>
+        <v>The date of the reported actual element.</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>ArrivalTime</v>
+        <v>AsOfDate</v>
       </c>
       <c r="B98" t="str">
-        <v>xs:time</v>
+        <v>xs:date</v>
       </c>
       <c r="C98" t="str">
-        <v>StudentSectionAttendanceEvent</v>
+        <v>Budget</v>
       </c>
       <c r="D98" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E98" t="str">
-        <v>The time of day the student arrived for the attendance event in ISO 8601 format.</v>
+        <v>The date of the reported budget element.</v>
       </c>
     </row>
     <row r="99">
@@ -2095,13 +2095,13 @@
         <v>xs:date</v>
       </c>
       <c r="C99" t="str">
-        <v>Actual</v>
+        <v>ContractedStaff</v>
       </c>
       <c r="D99" t="str">
         <v/>
       </c>
       <c r="E99" t="str">
-        <v>The date of the reported actual element.</v>
+        <v>The date of the reported contracted staff element.</v>
       </c>
     </row>
     <row r="100">
@@ -2112,13 +2112,13 @@
         <v>xs:date</v>
       </c>
       <c r="C100" t="str">
-        <v>Budget</v>
+        <v>Payroll</v>
       </c>
       <c r="D100" t="str">
         <v/>
       </c>
       <c r="E100" t="str">
-        <v>The date of the reported budget element.</v>
+        <v>The date of the reported payroll element.</v>
       </c>
     </row>
     <row r="101">
@@ -2129,13 +2129,13 @@
         <v>xs:date</v>
       </c>
       <c r="C101" t="str">
-        <v>ContractedStaff</v>
+        <v>ActualIdentityType</v>
       </c>
       <c r="D101" t="str">
         <v/>
       </c>
       <c r="E101" t="str">
-        <v>The date of the reported contracted staff element.</v>
+        <v>The date of the reported actual element.</v>
       </c>
     </row>
     <row r="102">
@@ -2146,13 +2146,13 @@
         <v>xs:date</v>
       </c>
       <c r="C102" t="str">
-        <v>Payroll</v>
+        <v>BudgetIdentityType</v>
       </c>
       <c r="D102" t="str">
         <v/>
       </c>
       <c r="E102" t="str">
-        <v>The date of the reported payroll element.</v>
+        <v>The date of the reported budget element.</v>
       </c>
     </row>
     <row r="103">
@@ -2163,13 +2163,13 @@
         <v>xs:date</v>
       </c>
       <c r="C103" t="str">
-        <v>ActualIdentityType</v>
+        <v>ContractedStaffIdentityType</v>
       </c>
       <c r="D103" t="str">
         <v/>
       </c>
       <c r="E103" t="str">
-        <v>The date of the reported actual element.</v>
+        <v>The date of the reported contracted staff element.</v>
       </c>
     </row>
     <row r="104">
@@ -2180,81 +2180,47 @@
         <v>xs:date</v>
       </c>
       <c r="C104" t="str">
-        <v>BudgetIdentityType</v>
+        <v>PayrollIdentityType</v>
       </c>
       <c r="D104" t="str">
         <v/>
       </c>
       <c r="E104" t="str">
-        <v>The date of the reported budget element.</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>The date of the reported payroll element.</v>
+      </c>
+    </row>
+    <row r="105" xml:space="preserve">
       <c r="A105" t="str">
-        <v>AsOfDate</v>
+        <v>AssessedGradeLevel</v>
       </c>
       <c r="B105" t="str">
-        <v>xs:date</v>
+        <v>GradeLevelDescriptorReferenceType</v>
       </c>
       <c r="C105" t="str">
-        <v>ContractedStaffIdentityType</v>
-      </c>
-      <c r="D105" t="str">
-        <v/>
-      </c>
-      <c r="E105" t="str">
-        <v>The date of the reported contracted staff element.</v>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="str">
-        <v>AsOfDate</v>
-      </c>
-      <c r="B106" t="str">
-        <v>xs:date</v>
-      </c>
-      <c r="C106" t="str">
-        <v>PayrollIdentityType</v>
-      </c>
-      <c r="D106" t="str">
-        <v/>
-      </c>
-      <c r="E106" t="str">
-        <v>The date of the reported payroll element.</v>
-      </c>
-    </row>
-    <row r="107" xml:space="preserve">
-      <c r="A107" t="str">
-        <v>AssessedGradeLevel</v>
-      </c>
-      <c r="B107" t="str">
-        <v>GradeLevelDescriptorReferenceType</v>
-      </c>
-      <c r="C107" t="str">
         <v>Assessment</v>
       </c>
-      <c r="D107" t="str" xml:space="preserve">
+      <c r="D105" t="str" xml:space="preserve">
         <v xml:space="preserve">minOccurs: 0
 maxOccurs: unbounded</v>
       </c>
-      <c r="E107" t="str">
+      <c r="E105" t="str">
         <v>The grade level(s) for which an assessment is designed. The semantics of null is assumed to mean that the assessment is not associated with any grade level.</v>
       </c>
     </row>
-    <row r="108" xml:space="preserve">
-      <c r="A108" t="str">
+    <row r="106" xml:space="preserve">
+      <c r="A106" t="str">
         <v>AssessmentCategory</v>
       </c>
-      <c r="B108" t="str">
+      <c r="B106" t="str">
         <v>AssessmentCategoryDescriptorReferenceType</v>
       </c>
-      <c r="C108" t="str">
+      <c r="C106" t="str">
         <v>Assessment</v>
       </c>
-      <c r="D108" t="str">
-        <v>minOccurs: 0</v>
-      </c>
-      <c r="E108" t="str" xml:space="preserve">
+      <c r="D106" t="str">
+        <v>minOccurs: 0</v>
+      </c>
+      <c r="E106" t="str" xml:space="preserve">
         <v xml:space="preserve">The category of an assessment based on format and content. For example:_x000d_
         Achievement test_x000d_
         Advanced placement test_x000d_
@@ -2264,140 +2230,140 @@
         ...</v>
       </c>
     </row>
-    <row r="109">
+    <row r="107">
+      <c r="A107" t="str">
+        <v>AssessmentFamily</v>
+      </c>
+      <c r="B107" t="str">
+        <v>AssessmentFamily</v>
+      </c>
+      <c r="C107" t="str">
+        <v>Assessment</v>
+      </c>
+      <c r="D107" t="str">
+        <v>minOccurs: 0</v>
+      </c>
+      <c r="E107" t="str">
+        <v>The AssessmentFamily this Assessment is a member of.</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="str">
+        <v>AssessmentForm</v>
+      </c>
+      <c r="B108" t="str">
+        <v>AssessmentForm</v>
+      </c>
+      <c r="C108" t="str">
+        <v>Assessment</v>
+      </c>
+      <c r="D108" t="str">
+        <v>minOccurs: 0</v>
+      </c>
+      <c r="E108" t="str">
+        <v>Identifies the form of the assessment, for example a regular versus makeup form, multiple choice versus constructed response, etc.</v>
+      </c>
+    </row>
+    <row r="109" xml:space="preserve">
       <c r="A109" t="str">
-        <v>AssessmentFamily</v>
+        <v>AssessmentIdentificationCode</v>
       </c>
       <c r="B109" t="str">
-        <v>AssessmentFamily</v>
+        <v>AssessmentIdentificationCode</v>
       </c>
       <c r="C109" t="str">
         <v>Assessment</v>
       </c>
-      <c r="D109" t="str">
-        <v>minOccurs: 0</v>
+      <c r="D109" t="str" xml:space="preserve">
+        <v xml:space="preserve">minOccurs: 0
+maxOccurs: unbounded</v>
       </c>
       <c r="E109" t="str">
-        <v>The AssessmentFamily this Assessment is a member of.</v>
+        <v>A unique number or alphanumeric code assigned to an assessment by a school, school system, a state, or other agency or entity.</v>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>AssessmentForm</v>
+        <v>AssessmentIdentificationSystem</v>
       </c>
       <c r="B110" t="str">
-        <v>AssessmentForm</v>
+        <v>AssessmentIdentificationSystemDescriptorReferenceType</v>
       </c>
       <c r="C110" t="str">
-        <v>Assessment</v>
+        <v>AssessmentIdentificationCode</v>
       </c>
       <c r="D110" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E110" t="str">
-        <v>Identifies the form of the assessment, for example a regular versus makeup form, multiple choice versus constructed response, etc.</v>
-      </c>
-    </row>
-    <row r="111" xml:space="preserve">
+        <v>A coding scheme that is used for identification and record-keeping purposes by schools, social services, or other agencies to refer to an assessment.</v>
+      </c>
+    </row>
+    <row r="111">
       <c r="A111" t="str">
-        <v>AssessmentIdentificationCode</v>
+        <v>AssessmentIdentifier</v>
       </c>
       <c r="B111" t="str">
-        <v>AssessmentIdentificationCode</v>
+        <v>IdentificationCode</v>
       </c>
       <c r="C111" t="str">
         <v>Assessment</v>
       </c>
-      <c r="D111" t="str" xml:space="preserve">
-        <v xml:space="preserve">minOccurs: 0
-maxOccurs: unbounded</v>
+      <c r="D111" t="str">
+        <v/>
       </c>
       <c r="E111" t="str">
-        <v>A unique number or alphanumeric code assigned to an assessment by a school, school system, a state, or other agency or entity.</v>
+        <v>A unique number or alphanumeric code assigned to an assessment.</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>AssessmentIdentificationSystem</v>
+        <v>AssessmentIdentifier</v>
       </c>
       <c r="B112" t="str">
-        <v>AssessmentIdentificationSystemDescriptorReferenceType</v>
+        <v>IdentificationCode</v>
       </c>
       <c r="C112" t="str">
-        <v>AssessmentIdentificationCode</v>
+        <v>AssessmentIdentityType</v>
       </c>
       <c r="D112" t="str">
         <v/>
       </c>
       <c r="E112" t="str">
-        <v>A coding scheme that is used for identification and record-keeping purposes by schools, social services, or other agencies to refer to an assessment.</v>
+        <v>A unique number or alphanumeric code assigned to an assessment.</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>AssessmentIdentifier</v>
+        <v>AssessmentIdentity</v>
       </c>
       <c r="B113" t="str">
-        <v>IdentificationCode</v>
+        <v>AssessmentIdentityType</v>
       </c>
       <c r="C113" t="str">
-        <v>Assessment</v>
+        <v>AssessmentReferenceType</v>
       </c>
       <c r="D113" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E113" t="str">
-        <v>A unique number or alphanumeric code assigned to an assessment.</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>Identity of an Assessment.</v>
+      </c>
+    </row>
+    <row r="114" xml:space="preserve">
       <c r="A114" t="str">
-        <v>AssessmentIdentifier</v>
+        <v>AssessmentItemCategory</v>
       </c>
       <c r="B114" t="str">
-        <v>IdentificationCode</v>
+        <v>AssessmentItemCategoryDescriptorReferenceType</v>
       </c>
       <c r="C114" t="str">
-        <v>AssessmentIdentityType</v>
+        <v>AssessmentItem</v>
       </c>
       <c r="D114" t="str">
-        <v/>
-      </c>
-      <c r="E114" t="str">
-        <v>A unique number or alphanumeric code assigned to an assessment.</v>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="str">
-        <v>AssessmentIdentity</v>
-      </c>
-      <c r="B115" t="str">
-        <v>AssessmentIdentityType</v>
-      </c>
-      <c r="C115" t="str">
-        <v>AssessmentReferenceType</v>
-      </c>
-      <c r="D115" t="str">
-        <v>minOccurs: 0</v>
-      </c>
-      <c r="E115" t="str">
-        <v>Identity of an Assessment.</v>
-      </c>
-    </row>
-    <row r="116" xml:space="preserve">
-      <c r="A116" t="str">
-        <v>AssessmentItemCategory</v>
-      </c>
-      <c r="B116" t="str">
-        <v>AssessmentItemCategoryDescriptorReferenceType</v>
-      </c>
-      <c r="C116" t="str">
-        <v>AssessmentItem</v>
-      </c>
-      <c r="D116" t="str">
-        <v>minOccurs: 0</v>
-      </c>
-      <c r="E116" t="str" xml:space="preserve">
+        <v>minOccurs: 0</v>
+      </c>
+      <c r="E114" t="str" xml:space="preserve">
         <v xml:space="preserve">Category or type of the AssessmentItem. For example:_x000d_
         Multiple choice_x000d_
         Analytic_x000d_
@@ -2405,72 +2371,72 @@
         ...</v>
       </c>
     </row>
+    <row r="115">
+      <c r="A115" t="str">
+        <v>AssessmentItemIdentity</v>
+      </c>
+      <c r="B115" t="str">
+        <v>AssessmentItemIdentityType</v>
+      </c>
+      <c r="C115" t="str">
+        <v>AssessmentItemReferenceType</v>
+      </c>
+      <c r="D115" t="str">
+        <v>minOccurs: 0</v>
+      </c>
+      <c r="E115" t="str">
+        <v>Identity of an AssessmentItem.</v>
+      </c>
+    </row>
+    <row r="116" xml:space="preserve">
+      <c r="A116" t="str">
+        <v>AssessmentItemReference</v>
+      </c>
+      <c r="B116" t="str">
+        <v>AssessmentItemReferenceType</v>
+      </c>
+      <c r="C116" t="str">
+        <v>ObjectiveAssessment</v>
+      </c>
+      <c r="D116" t="str" xml:space="preserve">
+        <v xml:space="preserve">minOccurs: 0
+maxOccurs: unbounded</v>
+      </c>
+      <c r="E116" t="str">
+        <v>References individual test items, if appropriate.</v>
+      </c>
+    </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>AssessmentItemIdentity</v>
+        <v>AssessmentItemReference</v>
       </c>
       <c r="B117" t="str">
-        <v>AssessmentItemIdentityType</v>
+        <v>AssessmentItemReferenceType</v>
       </c>
       <c r="C117" t="str">
-        <v>AssessmentItemReferenceType</v>
+        <v>StudentAssessmentItem</v>
       </c>
       <c r="D117" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E117" t="str">
-        <v>Identity of an AssessmentItem.</v>
+        <v>The AssessmentItem responded to by the Student.</v>
       </c>
     </row>
     <row r="118" xml:space="preserve">
       <c r="A118" t="str">
-        <v>AssessmentItemReference</v>
+        <v>AssessmentItemResult</v>
       </c>
       <c r="B118" t="str">
-        <v>AssessmentItemReferenceType</v>
+        <v>AssessmentItemResultDescriptorReferenceType</v>
       </c>
       <c r="C118" t="str">
-        <v>ObjectiveAssessment</v>
-      </c>
-      <c r="D118" t="str" xml:space="preserve">
-        <v xml:space="preserve">minOccurs: 0
-maxOccurs: unbounded</v>
-      </c>
-      <c r="E118" t="str">
-        <v>References individual test items, if appropriate.</v>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="str">
-        <v>AssessmentItemReference</v>
-      </c>
-      <c r="B119" t="str">
-        <v>AssessmentItemReferenceType</v>
-      </c>
-      <c r="C119" t="str">
         <v>StudentAssessmentItem</v>
       </c>
-      <c r="D119" t="str">
-        <v/>
-      </c>
-      <c r="E119" t="str">
-        <v>The AssessmentItem responded to by the Student.</v>
-      </c>
-    </row>
-    <row r="120" xml:space="preserve">
-      <c r="A120" t="str">
-        <v>AssessmentItemResult</v>
-      </c>
-      <c r="B120" t="str">
-        <v>AssessmentItemResultDescriptorReferenceType</v>
-      </c>
-      <c r="C120" t="str">
-        <v>StudentAssessmentItem</v>
-      </c>
-      <c r="D120" t="str">
-        <v/>
-      </c>
-      <c r="E120" t="str" xml:space="preserve">
+      <c r="D118" t="str">
+        <v/>
+      </c>
+      <c r="E118" t="str" xml:space="preserve">
         <v xml:space="preserve">The analyzed result of a student's response to an assessment item. For example:_x000d_
         Correct_x000d_
         Incorrect_x000d_
@@ -2478,114 +2444,148 @@
         ...</v>
       </c>
     </row>
-    <row r="121">
+    <row r="119">
+      <c r="A119" t="str">
+        <v>AssessmentItemURI</v>
+      </c>
+      <c r="B119" t="str">
+        <v>URI</v>
+      </c>
+      <c r="C119" t="str">
+        <v>AssessmentItem</v>
+      </c>
+      <c r="D119" t="str">
+        <v>minOccurs: 0</v>
+      </c>
+      <c r="E119" t="str">
+        <v>The URI (typical a URL) pointing to the entry in an assessment item bank, which describes this content item.</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="str">
+        <v>AssessmentLookup</v>
+      </c>
+      <c r="B120" t="str">
+        <v>AssessmentLookupType</v>
+      </c>
+      <c r="C120" t="str">
+        <v>AssessmentReferenceType</v>
+      </c>
+      <c r="D120" t="str">
+        <v>minOccurs: 0</v>
+      </c>
+      <c r="E120" t="str">
+        <v>Encapsulates alternative attributes that can be used to look up the identity of an Assessment.</v>
+      </c>
+    </row>
+    <row r="121" xml:space="preserve">
       <c r="A121" t="str">
-        <v>AssessmentItemURI</v>
+        <v>AssessmentPerformanceLevel</v>
       </c>
       <c r="B121" t="str">
-        <v>URI</v>
+        <v>AssessmentPerformanceLevel</v>
       </c>
       <c r="C121" t="str">
-        <v>AssessmentItem</v>
-      </c>
-      <c r="D121" t="str">
-        <v>minOccurs: 0</v>
-      </c>
-      <c r="E121" t="str">
-        <v>The URI (typical a URL) pointing to the entry in an assessment item bank, which describes this content item.</v>
-      </c>
-    </row>
-    <row r="122">
-      <c r="A122" t="str">
-        <v>AssessmentLookup</v>
-      </c>
-      <c r="B122" t="str">
-        <v>AssessmentLookupType</v>
-      </c>
-      <c r="C122" t="str">
-        <v>AssessmentReferenceType</v>
-      </c>
-      <c r="D122" t="str">
-        <v>minOccurs: 0</v>
-      </c>
-      <c r="E122" t="str">
-        <v>Encapsulates alternative attributes that can be used to look up the identity of an Assessment.</v>
-      </c>
-    </row>
-    <row r="123" xml:space="preserve">
-      <c r="A123" t="str">
-        <v>AssessmentPerformanceLevel</v>
-      </c>
-      <c r="B123" t="str">
-        <v>AssessmentPerformanceLevel</v>
-      </c>
-      <c r="C123" t="str">
         <v>Assessment</v>
       </c>
-      <c r="D123" t="str" xml:space="preserve">
+      <c r="D121" t="str" xml:space="preserve">
         <v xml:space="preserve">minOccurs: 0
 maxOccurs: unbounded</v>
       </c>
-      <c r="E123" t="str" xml:space="preserve">
+      <c r="E121" t="str" xml:space="preserve">
         <v xml:space="preserve">Definition of the performance levels and the associated cut scores. Three styles are supported:_x000d_
         1. Specification of performance level by minimum and maximum score_x000d_
         2. Specification of performance level by cut score, using only minimum score_x000d_
         3. Specification of performance level without any mapping to scores.</v>
       </c>
     </row>
-    <row r="124" xml:space="preserve">
-      <c r="A124" t="str">
+    <row r="122" xml:space="preserve">
+      <c r="A122" t="str">
         <v>AssessmentPerformanceLevel</v>
       </c>
-      <c r="B124" t="str">
+      <c r="B122" t="str">
         <v>AssessmentPerformanceLevel</v>
       </c>
-      <c r="C124" t="str">
+      <c r="C122" t="str">
         <v>ObjectiveAssessment</v>
       </c>
-      <c r="D124" t="str" xml:space="preserve">
+      <c r="D122" t="str" xml:space="preserve">
         <v xml:space="preserve">minOccurs: 0
 maxOccurs: unbounded</v>
       </c>
-      <c r="E124" t="str" xml:space="preserve">
+      <c r="E122" t="str" xml:space="preserve">
         <v xml:space="preserve">Definition of the performance levels and the associated cut scores. Three styles are supported:_x000d_
         1. Specification of performance level by minimum and maximum score_x000d_
         2. Specification of performance level by cut score, using only minimum score_x000d_
         3. Specification of performance level without any mapping to scores</v>
       </c>
     </row>
+    <row r="123">
+      <c r="A123" t="str">
+        <v>AssessmentPeriod</v>
+      </c>
+      <c r="B123" t="str">
+        <v>AssessmentPeriod</v>
+      </c>
+      <c r="C123" t="str">
+        <v>Assessment</v>
+      </c>
+      <c r="D123" t="str">
+        <v>minOccurs: 0</v>
+      </c>
+      <c r="E123" t="str">
+        <v>The period or window in which an assessment is supposed to be administered.</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="str">
+        <v>AssessmentPeriod</v>
+      </c>
+      <c r="B124" t="str">
+        <v>AssessmentPeriodDescriptorReferenceType</v>
+      </c>
+      <c r="C124" t="str">
+        <v>AssessmentPeriod</v>
+      </c>
+      <c r="D124" t="str">
+        <v/>
+      </c>
+      <c r="E124" t="str">
+        <v>The period of time in which an assessment is supposed to be administered (e.g., Beginning of Year, Middle of Year, End of Year).</v>
+      </c>
+    </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>AssessmentPeriod</v>
+        <v>AssessmentReference</v>
       </c>
       <c r="B125" t="str">
-        <v>AssessmentPeriod</v>
+        <v>AssessmentReferenceType</v>
       </c>
       <c r="C125" t="str">
-        <v>Assessment</v>
+        <v>AssessmentItem</v>
       </c>
       <c r="D125" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E125" t="str">
-        <v>The period or window in which an assessment is supposed to be administered.</v>
+        <v>Relates the AssessmentItem to an existing assessment.</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>AssessmentPeriod</v>
+        <v>AssessmentReference</v>
       </c>
       <c r="B126" t="str">
-        <v>AssessmentPeriodDescriptorReferenceType</v>
+        <v>AssessmentReferenceType</v>
       </c>
       <c r="C126" t="str">
-        <v>AssessmentPeriod</v>
+        <v>ObjectiveAssessment</v>
       </c>
       <c r="D126" t="str">
         <v/>
       </c>
       <c r="E126" t="str">
-        <v>The period of time in which an assessment is supposed to be administered (e.g., Beginning of Year, Middle of Year, End of Year).</v>
+        <v>Provide user information to lookup and link to an existing assessment.</v>
       </c>
     </row>
     <row r="127">
@@ -2596,13 +2596,13 @@
         <v>AssessmentReferenceType</v>
       </c>
       <c r="C127" t="str">
-        <v>AssessmentItem</v>
+        <v>StudentAssessment</v>
       </c>
       <c r="D127" t="str">
         <v/>
       </c>
       <c r="E127" t="str">
-        <v>Relates the AssessmentItem to an existing assessment.</v>
+        <v>Reference to the Assessment taken by the student.</v>
       </c>
     </row>
     <row r="128">
@@ -2613,13 +2613,13 @@
         <v>AssessmentReferenceType</v>
       </c>
       <c r="C128" t="str">
-        <v>ObjectiveAssessment</v>
+        <v>AssessmentItemIdentityType</v>
       </c>
       <c r="D128" t="str">
         <v/>
       </c>
       <c r="E128" t="str">
-        <v>Provide user information to lookup and link to an existing assessment.</v>
+        <v>Relates the AssessmentItem to an existing assessment.</v>
       </c>
     </row>
     <row r="129">
@@ -2630,13 +2630,13 @@
         <v>AssessmentReferenceType</v>
       </c>
       <c r="C129" t="str">
-        <v>StudentAssessment</v>
+        <v>ObjectiveAssessmentIdentityType</v>
       </c>
       <c r="D129" t="str">
         <v/>
       </c>
       <c r="E129" t="str">
-        <v>Reference to the Assessment taken by the student.</v>
+        <v>Provide user information to lookup and link to an existing assessment.</v>
       </c>
     </row>
     <row r="130">
@@ -2647,13 +2647,13 @@
         <v>AssessmentReferenceType</v>
       </c>
       <c r="C130" t="str">
-        <v>AssessmentItemIdentityType</v>
+        <v>StudentAssessmentIdentityType</v>
       </c>
       <c r="D130" t="str">
         <v/>
       </c>
       <c r="E130" t="str">
-        <v>Relates the AssessmentItem to an existing assessment.</v>
+        <v>Reference to the Assessment taken by the student.</v>
       </c>
     </row>
     <row r="131">
@@ -2664,7 +2664,7 @@
         <v>AssessmentReferenceType</v>
       </c>
       <c r="C131" t="str">
-        <v>ObjectiveAssessmentIdentityType</v>
+        <v>RequiredAssessment</v>
       </c>
       <c r="D131" t="str">
         <v/>
@@ -2675,36 +2675,36 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>AssessmentReference</v>
+        <v>AssessmentReportingMethod</v>
       </c>
       <c r="B132" t="str">
-        <v>AssessmentReferenceType</v>
+        <v>AssessmentReportingMethodDescriptorReferenceType</v>
       </c>
       <c r="C132" t="str">
-        <v>StudentAssessmentIdentityType</v>
+        <v>AssessmentPerformanceLevel</v>
       </c>
       <c r="D132" t="str">
         <v/>
       </c>
       <c r="E132" t="str">
-        <v>Reference to the Assessment taken by the student.</v>
+        <v>The method that the instructor of the class uses to report the performance and achievement of all students. It may be a qualitative method such as individualized teacher comments or a quantitative method such as a letter or numerical grade. In some cases, more than one type of reporting method may be used.</v>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>AssessmentReference</v>
+        <v>AssessmentReportingMethod</v>
       </c>
       <c r="B133" t="str">
-        <v>AssessmentReferenceType</v>
+        <v>AssessmentReportingMethodDescriptorReferenceType</v>
       </c>
       <c r="C133" t="str">
-        <v>RequiredAssessment</v>
+        <v>AssessmentScore</v>
       </c>
       <c r="D133" t="str">
         <v/>
       </c>
       <c r="E133" t="str">
-        <v>Provide user information to lookup and link to an existing assessment.</v>
+        <v>The method that the administrator of the assessment uses to report the performance and achievement of all students. It may be a qualitative method such as performance level descriptors or a quantitative method such as a numerical grade or cut score. More than one type of reporting method may be used.</v>
       </c>
     </row>
     <row r="134">
@@ -2715,13 +2715,13 @@
         <v>AssessmentReportingMethodDescriptorReferenceType</v>
       </c>
       <c r="C134" t="str">
-        <v>AssessmentPerformanceLevel</v>
+        <v>PerformanceLevel</v>
       </c>
       <c r="D134" t="str">
         <v/>
       </c>
       <c r="E134" t="str">
-        <v>The method that the instructor of the class uses to report the performance and achievement of all students. It may be a qualitative method such as individualized teacher comments or a quantitative method such as a letter or numerical grade. In some cases, more than one type of reporting method may be used.</v>
+        <v>The method that the instructor of the class uses to report the performance and achievement. It may be a qualitative method such as individualized teacher comments or a quantitative method such as a letter or numerical grade. In some cases, more than one type of reporting method may be used.</v>
       </c>
     </row>
     <row r="135">
@@ -2732,7 +2732,7 @@
         <v>AssessmentReportingMethodDescriptorReferenceType</v>
       </c>
       <c r="C135" t="str">
-        <v>AssessmentScore</v>
+        <v>ScoreResult</v>
       </c>
       <c r="D135" t="str">
         <v/>
@@ -2743,123 +2743,123 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>AssessmentReportingMethod</v>
+        <v>AssessmentResponse</v>
       </c>
       <c r="B136" t="str">
-        <v>AssessmentReportingMethodDescriptorReferenceType</v>
+        <v>AssessmentResponse</v>
       </c>
       <c r="C136" t="str">
-        <v>PerformanceLevel</v>
+        <v>StudentAssessmentItem</v>
       </c>
       <c r="D136" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E136" t="str">
-        <v>The method that the instructor of the class uses to report the performance and achievement. It may be a qualitative method such as individualized teacher comments or a quantitative method such as a letter or numerical grade. In some cases, more than one type of reporting method may be used.</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>A student's response to a stimulus on a test.</v>
+      </c>
+    </row>
+    <row r="137" xml:space="preserve">
       <c r="A137" t="str">
-        <v>AssessmentReportingMethod</v>
+        <v>AssessmentScore</v>
       </c>
       <c r="B137" t="str">
-        <v>AssessmentReportingMethodDescriptorReferenceType</v>
+        <v>AssessmentScore</v>
       </c>
       <c r="C137" t="str">
-        <v>ScoreResult</v>
-      </c>
-      <c r="D137" t="str">
-        <v/>
+        <v>Assessment</v>
+      </c>
+      <c r="D137" t="str" xml:space="preserve">
+        <v xml:space="preserve">minOccurs: 0
+maxOccurs: unbounded</v>
       </c>
       <c r="E137" t="str">
-        <v>The method that the administrator of the assessment uses to report the performance and achievement of all students. It may be a qualitative method such as performance level descriptors or a quantitative method such as a numerical grade or cut score. More than one type of reporting method may be used.</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>Definition of the scores to be expected from this assessment.</v>
+      </c>
+    </row>
+    <row r="138" xml:space="preserve">
       <c r="A138" t="str">
-        <v>AssessmentResponse</v>
+        <v>AssessmentScore</v>
       </c>
       <c r="B138" t="str">
-        <v>AssessmentResponse</v>
+        <v>AssessmentScore</v>
       </c>
       <c r="C138" t="str">
-        <v>StudentAssessmentItem</v>
-      </c>
-      <c r="D138" t="str">
-        <v>minOccurs: 0</v>
+        <v>ObjectiveAssessment</v>
+      </c>
+      <c r="D138" t="str" xml:space="preserve">
+        <v xml:space="preserve">minOccurs: 0
+maxOccurs: unbounded</v>
       </c>
       <c r="E138" t="str">
-        <v>A student's response to a stimulus on a test.</v>
-      </c>
-    </row>
-    <row r="139" xml:space="preserve">
+        <v>Definition of the scores to be expected from this objective assessment.</v>
+      </c>
+    </row>
+    <row r="139">
       <c r="A139" t="str">
-        <v>AssessmentScore</v>
+        <v>AssessmentTitle</v>
       </c>
       <c r="B139" t="str">
-        <v>AssessmentScore</v>
+        <v>AssessmentTitle</v>
       </c>
       <c r="C139" t="str">
         <v>Assessment</v>
       </c>
-      <c r="D139" t="str" xml:space="preserve">
-        <v xml:space="preserve">minOccurs: 0
-maxOccurs: unbounded</v>
+      <c r="D139" t="str">
+        <v/>
       </c>
       <c r="E139" t="str">
-        <v>Definition of the scores to be expected from this assessment.</v>
-      </c>
-    </row>
-    <row r="140" xml:space="preserve">
+        <v>The title or name of the Assessment.</v>
+      </c>
+    </row>
+    <row r="140">
       <c r="A140" t="str">
-        <v>AssessmentScore</v>
+        <v>AssessmentVersion</v>
       </c>
       <c r="B140" t="str">
-        <v>AssessmentScore</v>
+        <v>AssessmentVersion</v>
       </c>
       <c r="C140" t="str">
-        <v>ObjectiveAssessment</v>
-      </c>
-      <c r="D140" t="str" xml:space="preserve">
-        <v xml:space="preserve">minOccurs: 0
-maxOccurs: unbounded</v>
+        <v>Assessment</v>
+      </c>
+      <c r="D140" t="str">
+        <v>minOccurs: 0</v>
       </c>
       <c r="E140" t="str">
-        <v>Definition of the scores to be expected from this objective assessment.</v>
+        <v>The version identifier for the assessment.</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>AssessmentTitle</v>
+        <v>AssigningOrganizationIdentificationCode</v>
       </c>
       <c r="B141" t="str">
-        <v>AssessmentTitle</v>
+        <v>IdentificationCode</v>
       </c>
       <c r="C141" t="str">
-        <v>Assessment</v>
+        <v>CourseTranscript</v>
       </c>
       <c r="D141" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E141" t="str">
-        <v>The title or name of the Assessment.</v>
+        <v>The organization code or name assigning the course identification code.</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>AssessmentVersion</v>
+        <v>AssigningOrganizationIdentificationCode</v>
       </c>
       <c r="B142" t="str">
-        <v>AssessmentVersion</v>
+        <v>IdentificationCode</v>
       </c>
       <c r="C142" t="str">
-        <v>Assessment</v>
+        <v>AssessmentIdentificationCode</v>
       </c>
       <c r="D142" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E142" t="str">
-        <v>The version identifier for the assessment.</v>
+        <v>The organization code or name assigning the assessment identification code.</v>
       </c>
     </row>
     <row r="143">
@@ -2870,13 +2870,13 @@
         <v>IdentificationCode</v>
       </c>
       <c r="C143" t="str">
-        <v>CourseTranscript</v>
+        <v>CourseIdentificationCode</v>
       </c>
       <c r="D143" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E143" t="str">
-        <v>The organization code or name assigning the course identification code.</v>
+        <v>The organization code or name assigning the Identification Code.</v>
       </c>
     </row>
     <row r="144">
@@ -2887,13 +2887,13 @@
         <v>IdentificationCode</v>
       </c>
       <c r="C144" t="str">
-        <v>AssessmentIdentificationCode</v>
+        <v>StaffIdentificationCode</v>
       </c>
       <c r="D144" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E144" t="str">
-        <v>The organization code or name assigning the assessment identification code.</v>
+        <v>The organization code or name assigning the staff Identification Code.</v>
       </c>
     </row>
     <row r="145">
@@ -2904,13 +2904,13 @@
         <v>IdentificationCode</v>
       </c>
       <c r="C145" t="str">
-        <v>CourseIdentificationCode</v>
+        <v>StudentIdentificationCode</v>
       </c>
       <c r="D145" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E145" t="str">
-        <v>The organization code or name assigning the Identification Code.</v>
+        <v>The organization code or name assigning the StudentIdentificationCode.</v>
       </c>
     </row>
     <row r="146">
@@ -2921,13 +2921,13 @@
         <v>IdentificationCode</v>
       </c>
       <c r="C146" t="str">
-        <v>StaffIdentificationCode</v>
+        <v>EXTENSION-CourseTranscript</v>
       </c>
       <c r="D146" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E146" t="str">
-        <v>The organization code or name assigning the staff Identification Code.</v>
+        <v>The organization code or name assigning the course identification code.</v>
       </c>
     </row>
     <row r="147">
@@ -2938,64 +2938,64 @@
         <v>IdentificationCode</v>
       </c>
       <c r="C147" t="str">
-        <v>StudentIdentificationCode</v>
+        <v>EXTENSION-AlternativeCourseIdentificationCode</v>
       </c>
       <c r="D147" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E147" t="str">
-        <v>The organization code or name assigning the StudentIdentificationCode.</v>
+        <v>The organization code or name assigning the Identification Code.</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>AssigningOrganizationIdentificationCode</v>
+        <v>AssignmentSchoolReference</v>
       </c>
       <c r="B148" t="str">
-        <v>IdentificationCode</v>
+        <v>SchoolReferenceType</v>
       </c>
       <c r="C148" t="str">
-        <v>EXTENSION-CourseTranscript</v>
+        <v>DisciplineAction</v>
       </c>
       <c r="D148" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E148" t="str">
-        <v>The organization code or name assigning the course identification code.</v>
+        <v>School where student is transferred for discipline.</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>AssignmentSchoolReference</v>
+        <v>AttemptStatus</v>
       </c>
       <c r="B149" t="str">
-        <v>SchoolReferenceType</v>
+        <v>AttemptStatusDescriptorReferenceType</v>
       </c>
       <c r="C149" t="str">
-        <v>DisciplineAction</v>
+        <v>StudentSectionAssociation</v>
       </c>
       <c r="D149" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E149" t="str">
-        <v>School where student is transferred for discipline.</v>
+        <v>An indication of the student's completion status for the section.</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>AttemptStatus</v>
+        <v>AttemptedCredits</v>
       </c>
       <c r="B150" t="str">
-        <v>AttemptStatusDescriptorReferenceType</v>
+        <v>Credits</v>
       </c>
       <c r="C150" t="str">
-        <v>StudentSectionAssociation</v>
+        <v>CourseTranscript</v>
       </c>
       <c r="D150" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E150" t="str">
-        <v>An indication of the student's completion status for the section.</v>
+        <v>The number of credits a student attempted and could earn for successfully completing a given course.</v>
       </c>
     </row>
     <row r="151">
@@ -3006,7 +3006,7 @@
         <v>Credits</v>
       </c>
       <c r="C151" t="str">
-        <v>CourseTranscript</v>
+        <v>EXTENSION-CourseTranscript</v>
       </c>
       <c r="D151" t="str">
         <v>minOccurs: 0</v>
@@ -3017,19 +3017,19 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>AttemptedCredits</v>
+        <v>AttendanceEvent</v>
       </c>
       <c r="B152" t="str">
-        <v>Credits</v>
+        <v>AttendanceEvent</v>
       </c>
       <c r="C152" t="str">
-        <v>EXTENSION-CourseTranscript</v>
+        <v>StudentInterventionAttendanceEvent</v>
       </c>
       <c r="D152" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E152" t="str">
-        <v>The number of credits a student attempted and could earn for successfully completing a given course.</v>
+        <v>Details of the AttendanceEvent.</v>
       </c>
     </row>
     <row r="153">
@@ -3040,7 +3040,7 @@
         <v>AttendanceEvent</v>
       </c>
       <c r="C153" t="str">
-        <v>StudentInterventionAttendanceEvent</v>
+        <v>StudentProgramAttendanceEvent</v>
       </c>
       <c r="D153" t="str">
         <v/>
@@ -3057,7 +3057,7 @@
         <v>AttendanceEvent</v>
       </c>
       <c r="C154" t="str">
-        <v>StudentProgramAttendanceEvent</v>
+        <v>StudentSchoolAttendanceEvent</v>
       </c>
       <c r="D154" t="str">
         <v/>
@@ -3074,7 +3074,7 @@
         <v>AttendanceEvent</v>
       </c>
       <c r="C155" t="str">
-        <v>StudentSchoolAttendanceEvent</v>
+        <v>StudentSectionAttendanceEvent</v>
       </c>
       <c r="D155" t="str">
         <v/>
@@ -3083,21 +3083,25 @@
         <v>Details of the AttendanceEvent.</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" xml:space="preserve">
       <c r="A156" t="str">
-        <v>AttendanceEvent</v>
+        <v>AttendanceEventCategory</v>
       </c>
       <c r="B156" t="str">
-        <v>AttendanceEvent</v>
+        <v>AttendanceEventCategoryDescriptorReferenceType</v>
       </c>
       <c r="C156" t="str">
-        <v>StudentSectionAttendanceEvent</v>
+        <v>StudentInterventionAttendanceEventIdentityType</v>
       </c>
       <c r="D156" t="str">
         <v/>
       </c>
-      <c r="E156" t="str">
-        <v>Details of the AttendanceEvent.</v>
+      <c r="E156" t="str" xml:space="preserve">
+        <v xml:space="preserve">A code describing the attendance event, for example:_x000d_
+        Present_x000d_
+        Unexcused absence_x000d_
+        Excused absence_x000d_
+        Tardy.</v>
       </c>
     </row>
     <row r="157" xml:space="preserve">
@@ -3108,7 +3112,7 @@
         <v>AttendanceEventCategoryDescriptorReferenceType</v>
       </c>
       <c r="C157" t="str">
-        <v>StudentInterventionAttendanceEventIdentityType</v>
+        <v>StudentProgramAttendanceEventIdentityType</v>
       </c>
       <c r="D157" t="str">
         <v/>
@@ -3129,7 +3133,7 @@
         <v>AttendanceEventCategoryDescriptorReferenceType</v>
       </c>
       <c r="C158" t="str">
-        <v>StudentProgramAttendanceEventIdentityType</v>
+        <v>StudentSchoolAttendanceEventIdentityType</v>
       </c>
       <c r="D158" t="str">
         <v/>
@@ -3150,7 +3154,7 @@
         <v>AttendanceEventCategoryDescriptorReferenceType</v>
       </c>
       <c r="C159" t="str">
-        <v>StudentSchoolAttendanceEventIdentityType</v>
+        <v>StudentSectionAttendanceEventIdentityType</v>
       </c>
       <c r="D159" t="str">
         <v/>
@@ -3171,7 +3175,7 @@
         <v>AttendanceEventCategoryDescriptorReferenceType</v>
       </c>
       <c r="C160" t="str">
-        <v>StudentSectionAttendanceEventIdentityType</v>
+        <v>AttendanceEvent</v>
       </c>
       <c r="D160" t="str">
         <v/>
@@ -3184,42 +3188,39 @@
         Tardy.</v>
       </c>
     </row>
-    <row r="161" xml:space="preserve">
+    <row r="161">
       <c r="A161" t="str">
-        <v>AttendanceEventCategory</v>
+        <v>AttendanceEventReason</v>
       </c>
       <c r="B161" t="str">
-        <v>AttendanceEventCategoryDescriptorReferenceType</v>
+        <v>AttendanceEventReason</v>
       </c>
       <c r="C161" t="str">
         <v>AttendanceEvent</v>
       </c>
       <c r="D161" t="str">
-        <v/>
-      </c>
-      <c r="E161" t="str" xml:space="preserve">
-        <v xml:space="preserve">A code describing the attendance event, for example:_x000d_
-        Present_x000d_
-        Unexcused absence_x000d_
-        Excused absence_x000d_
-        Tardy.</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>minOccurs: 0</v>
+      </c>
+      <c r="E161" t="str">
+        <v>The reported reason for a student's absence.</v>
+      </c>
+    </row>
+    <row r="162" xml:space="preserve">
       <c r="A162" t="str">
-        <v>AttendanceEventReason</v>
+        <v>Author</v>
       </c>
       <c r="B162" t="str">
-        <v>AttendanceEventReason</v>
+        <v>Author</v>
       </c>
       <c r="C162" t="str">
-        <v>AttendanceEvent</v>
-      </c>
-      <c r="D162" t="str">
-        <v>minOccurs: 0</v>
+        <v>ContentStandard</v>
+      </c>
+      <c r="D162" t="str" xml:space="preserve">
+        <v xml:space="preserve">minOccurs: 0
+maxOccurs: unbounded</v>
       </c>
       <c r="E162" t="str">
-        <v>The reported reason for a student's absence.</v>
+        <v>The person or organization chiefly responsible for the intellectual content of the standard.</v>
       </c>
     </row>
     <row r="163" xml:space="preserve">
@@ -3230,83 +3231,82 @@
         <v>Author</v>
       </c>
       <c r="C163" t="str">
-        <v>ContentStandard</v>
+        <v>LearningResource</v>
       </c>
       <c r="D163" t="str" xml:space="preserve">
         <v xml:space="preserve">minOccurs: 0
 maxOccurs: unbounded</v>
       </c>
       <c r="E163" t="str">
-        <v>The person or organization chiefly responsible for the intellectual content of the standard.</v>
-      </c>
-    </row>
-    <row r="164" xml:space="preserve">
+        <v>The individual credited with the creation of the resource.</v>
+      </c>
+    </row>
+    <row r="164">
       <c r="A164" t="str">
-        <v>Author</v>
+        <v>AuthorizedFacilityCapacity</v>
       </c>
       <c r="B164" t="str">
-        <v>Author</v>
+        <v>Capacity</v>
       </c>
       <c r="C164" t="str">
-        <v>LearningResource</v>
-      </c>
-      <c r="D164" t="str" xml:space="preserve">
-        <v xml:space="preserve">minOccurs: 0
-maxOccurs: unbounded</v>
+        <v>License</v>
+      </c>
+      <c r="D164" t="str">
+        <v>minOccurs: 0</v>
       </c>
       <c r="E164" t="str">
-        <v>The individual credited with the creation of the resource.</v>
+        <v>The maximum number that can be contained or accommodated which a provider is authorized or licensed to serve.</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
-        <v>AuthorizedFacilityCapacity</v>
+        <v>AvailableCredits</v>
       </c>
       <c r="B165" t="str">
-        <v>Capacity</v>
+        <v>Credits</v>
       </c>
       <c r="C165" t="str">
-        <v>License</v>
+        <v>Section</v>
       </c>
       <c r="D165" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E165" t="str">
-        <v>The maximum number that can be contained or accommodated which a provider is authorized or licensed to serve.</v>
+        <v>The amount of credit available to a student who successfully meets the objectives of the course. AvailableCredits are measured in Carnegie units, A course meeting every day for one period of the school day over the span of a school year offers one Carnegie unit. See publication: U.S. Department of Education, NCES, 2007-341, Secondary School Course Classification System: School Codes for the Exchange of Data (SCED).</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
-        <v>AvailableCredits</v>
+        <v>AwaitingFosterCare</v>
       </c>
       <c r="B166" t="str">
-        <v>Credits</v>
+        <v>xs:boolean</v>
       </c>
       <c r="C166" t="str">
-        <v>Section</v>
+        <v>StudentHomelessProgramAssociation</v>
       </c>
       <c r="D166" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E166" t="str">
-        <v>The amount of credit available to a student who successfully meets the objectives of the course. AvailableCredits are measured in Carnegie units, A course meeting every day for one period of the school day over the span of a school year offers one Carnegie unit. See publication: U.S. Department of Education, NCES, 2007-341, Secondary School Course Classification System: School Codes for the Exchange of Data (SCED).</v>
+        <v>State defined definition for awaiting foster care.</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
-        <v>AwaitingFosterCare</v>
+        <v>BeginDate</v>
       </c>
       <c r="B167" t="str">
-        <v>xs:boolean</v>
+        <v>xs:date</v>
       </c>
       <c r="C167" t="str">
-        <v>StudentHomelessProgramAssociation</v>
+        <v>AcademicWeek</v>
       </c>
       <c r="D167" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E167" t="str">
-        <v>State defined definition for awaiting foster care.</v>
+        <v>The start date for the academic week.</v>
       </c>
     </row>
     <row r="168">
@@ -3317,13 +3317,13 @@
         <v>xs:date</v>
       </c>
       <c r="C168" t="str">
-        <v>AcademicWeek</v>
+        <v>GradingPeriod</v>
       </c>
       <c r="D168" t="str">
         <v/>
       </c>
       <c r="E168" t="str">
-        <v>The start date for the academic week.</v>
+        <v>Month, day, and year of the first day of the GradingPeriod.</v>
       </c>
     </row>
     <row r="169">
@@ -3334,13 +3334,13 @@
         <v>xs:date</v>
       </c>
       <c r="C169" t="str">
-        <v>GradingPeriod</v>
+        <v>Intervention</v>
       </c>
       <c r="D169" t="str">
         <v/>
       </c>
       <c r="E169" t="str">
-        <v>Month, day, and year of the first day of the GradingPeriod.</v>
+        <v>The start date for the intervention implementation.</v>
       </c>
     </row>
     <row r="170">
@@ -3351,13 +3351,13 @@
         <v>xs:date</v>
       </c>
       <c r="C170" t="str">
-        <v>Intervention</v>
+        <v>Session</v>
       </c>
       <c r="D170" t="str">
         <v/>
       </c>
       <c r="E170" t="str">
-        <v>The start date for the intervention implementation.</v>
+        <v>Month, day, and year of the first day of the Session.</v>
       </c>
     </row>
     <row r="171">
@@ -3368,13 +3368,13 @@
         <v>xs:date</v>
       </c>
       <c r="C171" t="str">
-        <v>Session</v>
+        <v>StaffLeave</v>
       </c>
       <c r="D171" t="str">
         <v/>
       </c>
       <c r="E171" t="str">
-        <v>Month, day, and year of the first day of the Session.</v>
+        <v>The begin date of the staff leave.</v>
       </c>
     </row>
     <row r="172">
@@ -3385,13 +3385,13 @@
         <v>xs:date</v>
       </c>
       <c r="C172" t="str">
-        <v>StaffLeave</v>
+        <v>EducationOrganizationInterventionPrescriptionAssociation</v>
       </c>
       <c r="D172" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E172" t="str">
-        <v>The begin date of the staff leave.</v>
+        <v>The begin date of the period during which the InterventionPrescription is available.</v>
       </c>
     </row>
     <row r="173">
@@ -3402,13 +3402,13 @@
         <v>xs:date</v>
       </c>
       <c r="C173" t="str">
-        <v>EducationOrganizationInterventionPrescriptionAssociation</v>
+        <v>EducationOrganizationNetworkAssociation</v>
       </c>
       <c r="D173" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E173" t="str">
-        <v>The begin date of the period during which the InterventionPrescription is available.</v>
+        <v>The date on which the EducationOrganization joined this network.</v>
       </c>
     </row>
     <row r="174">
@@ -3419,13 +3419,13 @@
         <v>xs:date</v>
       </c>
       <c r="C174" t="str">
-        <v>EducationOrganizationNetworkAssociation</v>
+        <v>FeederSchoolAssociation</v>
       </c>
       <c r="D174" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E174" t="str">
-        <v>The date on which the EducationOrganization joined this network.</v>
+        <v>The month, day, and year of the first day of the feeder school association.</v>
       </c>
     </row>
     <row r="175">
@@ -3436,13 +3436,13 @@
         <v>xs:date</v>
       </c>
       <c r="C175" t="str">
-        <v>FeederSchoolAssociation</v>
+        <v>GeneralStudentProgramAssociation</v>
       </c>
       <c r="D175" t="str">
         <v/>
       </c>
       <c r="E175" t="str">
-        <v>The month, day, and year of the first day of the feeder school association.</v>
+        <v>The earliest date the student is involved with the program. Typically, this is the date the student becomes eligible for the program.</v>
       </c>
     </row>
     <row r="176">
@@ -3453,13 +3453,13 @@
         <v>xs:date</v>
       </c>
       <c r="C176" t="str">
-        <v>GeneralStudentProgramAssociation</v>
+        <v>StaffCohortAssociation</v>
       </c>
       <c r="D176" t="str">
         <v/>
       </c>
       <c r="E176" t="str">
-        <v>The earliest date the student is involved with the program. Typically, this is the date the student becomes eligible for the program.</v>
+        <v>Start date for the association of staff to this cohort.</v>
       </c>
     </row>
     <row r="177">
@@ -3470,13 +3470,13 @@
         <v>xs:date</v>
       </c>
       <c r="C177" t="str">
-        <v>StaffCohortAssociation</v>
+        <v>StaffEducationOrganizationAssignmentAssociation</v>
       </c>
       <c r="D177" t="str">
         <v/>
       </c>
       <c r="E177" t="str">
-        <v>Start date for the association of staff to this cohort.</v>
+        <v>Month, day, and year of the start or effective date of a staff member's employment, contract, or relationship with the LEA.</v>
       </c>
     </row>
     <row r="178">
@@ -3487,13 +3487,13 @@
         <v>xs:date</v>
       </c>
       <c r="C178" t="str">
-        <v>StaffEducationOrganizationAssignmentAssociation</v>
+        <v>StaffProgramAssociation</v>
       </c>
       <c r="D178" t="str">
         <v/>
       </c>
       <c r="E178" t="str">
-        <v>Month, day, and year of the start or effective date of a staff member's employment, contract, or relationship with the LEA.</v>
+        <v>Start date for the association of staff to this program.</v>
       </c>
     </row>
     <row r="179">
@@ -3504,13 +3504,13 @@
         <v>xs:date</v>
       </c>
       <c r="C179" t="str">
-        <v>StaffProgramAssociation</v>
+        <v>StaffSectionAssociation</v>
       </c>
       <c r="D179" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E179" t="str">
-        <v>Start date for the association of staff to this program.</v>
+        <v>Month, day, and year of a teacher's assignment to the Section. If blank, defaults to the first day of the first grading period for the Section.</v>
       </c>
     </row>
     <row r="180">
@@ -3521,13 +3521,13 @@
         <v>xs:date</v>
       </c>
       <c r="C180" t="str">
-        <v>StaffSectionAssociation</v>
+        <v>StudentCohortAssociation</v>
       </c>
       <c r="D180" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E180" t="str">
-        <v>Month, day, and year of a teacher's assignment to the Section. If blank, defaults to the first day of the first grading period for the Section.</v>
+        <v>The month, day, and year on which the Student was first identified as part of the Cohort.</v>
       </c>
     </row>
     <row r="181">
@@ -3538,13 +3538,13 @@
         <v>xs:date</v>
       </c>
       <c r="C181" t="str">
-        <v>StudentCohortAssociation</v>
+        <v>StudentEducationOrganizationResponsibilityAssociation</v>
       </c>
       <c r="D181" t="str">
         <v/>
       </c>
       <c r="E181" t="str">
-        <v>The month, day, and year on which the Student was first identified as part of the Cohort.</v>
+        <v>Month, day, and year of the start date of an education organization's responsibility for a student.</v>
       </c>
     </row>
     <row r="182">
@@ -3555,13 +3555,13 @@
         <v>xs:date</v>
       </c>
       <c r="C182" t="str">
-        <v>StudentEducationOrganizationResponsibilityAssociation</v>
+        <v>StudentSectionAssociation</v>
       </c>
       <c r="D182" t="str">
         <v/>
       </c>
       <c r="E182" t="str">
-        <v>Month, day, and year of the start date of an education organization's responsibility for a student.</v>
+        <v>Month, day, and year of the Student's entry or assignment to the Section.</v>
       </c>
     </row>
     <row r="183">
@@ -3572,13 +3572,13 @@
         <v>xs:date</v>
       </c>
       <c r="C183" t="str">
-        <v>StudentSectionAssociation</v>
+        <v>FeederSchoolAssociationIdentityType</v>
       </c>
       <c r="D183" t="str">
         <v/>
       </c>
       <c r="E183" t="str">
-        <v>Month, day, and year of the Student's entry or assignment to the Section.</v>
+        <v>The month, day, and year of the first day of the feeder school association.</v>
       </c>
     </row>
     <row r="184">
@@ -3589,13 +3589,13 @@
         <v>xs:date</v>
       </c>
       <c r="C184" t="str">
-        <v>FeederSchoolAssociationIdentityType</v>
+        <v>GeneralStudentProgramAssociationIdentityType</v>
       </c>
       <c r="D184" t="str">
         <v/>
       </c>
       <c r="E184" t="str">
-        <v>The month, day, and year of the first day of the feeder school association.</v>
+        <v>The earliest date the student is involved with the program. Typically, this is the date the student becomes eligible for the program.</v>
       </c>
     </row>
     <row r="185">
@@ -3606,13 +3606,13 @@
         <v>xs:date</v>
       </c>
       <c r="C185" t="str">
-        <v>GeneralStudentProgramAssociationIdentityType</v>
+        <v>StaffCohortAssociationIdentityType</v>
       </c>
       <c r="D185" t="str">
         <v/>
       </c>
       <c r="E185" t="str">
-        <v>The earliest date the student is involved with the program. Typically, this is the date the student becomes eligible for the program.</v>
+        <v>Start date for the association of staff to this cohort.</v>
       </c>
     </row>
     <row r="186">
@@ -3623,13 +3623,13 @@
         <v>xs:date</v>
       </c>
       <c r="C186" t="str">
-        <v>StaffCohortAssociationIdentityType</v>
+        <v>StaffEducationOrganizationAssignmentAssociationIdentityType</v>
       </c>
       <c r="D186" t="str">
         <v/>
       </c>
       <c r="E186" t="str">
-        <v>Start date for the association of staff to this cohort.</v>
+        <v>Month, day, and year of the start or effective date of a staff member's employment, contract, or relationship with the LEA.</v>
       </c>
     </row>
     <row r="187">
@@ -3640,13 +3640,13 @@
         <v>xs:date</v>
       </c>
       <c r="C187" t="str">
-        <v>StaffEducationOrganizationAssignmentAssociationIdentityType</v>
+        <v>StaffLeaveIdentityType</v>
       </c>
       <c r="D187" t="str">
         <v/>
       </c>
       <c r="E187" t="str">
-        <v>Month, day, and year of the start or effective date of a staff member's employment, contract, or relationship with the LEA.</v>
+        <v>The begin date of the staff leave.</v>
       </c>
     </row>
     <row r="188">
@@ -3657,13 +3657,13 @@
         <v>xs:date</v>
       </c>
       <c r="C188" t="str">
-        <v>StaffLeaveIdentityType</v>
+        <v>StaffProgramAssociationIdentityType</v>
       </c>
       <c r="D188" t="str">
         <v/>
       </c>
       <c r="E188" t="str">
-        <v>The begin date of the staff leave.</v>
+        <v>Start date for the association of staff to this program.</v>
       </c>
     </row>
     <row r="189">
@@ -3674,13 +3674,13 @@
         <v>xs:date</v>
       </c>
       <c r="C189" t="str">
-        <v>StaffProgramAssociationIdentityType</v>
+        <v>StudentCohortAssociationIdentityType</v>
       </c>
       <c r="D189" t="str">
         <v/>
       </c>
       <c r="E189" t="str">
-        <v>Start date for the association of staff to this program.</v>
+        <v>The month, day, and year on which the Student was first identified as part of the Cohort.</v>
       </c>
     </row>
     <row r="190">
@@ -3691,13 +3691,13 @@
         <v>xs:date</v>
       </c>
       <c r="C190" t="str">
-        <v>StudentCohortAssociationIdentityType</v>
+        <v>StudentCTEProgramAssociationIdentityType</v>
       </c>
       <c r="D190" t="str">
         <v/>
       </c>
       <c r="E190" t="str">
-        <v>The month, day, and year on which the Student was first identified as part of the Cohort.</v>
+        <v>The earliest date the student is involved with the program. Typically, this is the date the student becomes eligible for the program.</v>
       </c>
     </row>
     <row r="191">
@@ -3708,13 +3708,13 @@
         <v>xs:date</v>
       </c>
       <c r="C191" t="str">
-        <v>StudentCTEProgramAssociationIdentityType</v>
+        <v>StudentEducationOrganizationResponsibilityAssociationIdentityType</v>
       </c>
       <c r="D191" t="str">
         <v/>
       </c>
       <c r="E191" t="str">
-        <v>The earliest date the student is involved with the program. Typically, this is the date the student becomes eligible for the program.</v>
+        <v>Month, day, and year of the start date of an education organization's responsibility for a student.</v>
       </c>
     </row>
     <row r="192">
@@ -3725,13 +3725,13 @@
         <v>xs:date</v>
       </c>
       <c r="C192" t="str">
-        <v>StudentEducationOrganizationResponsibilityAssociationIdentityType</v>
+        <v>StudentHomelessProgramAssociationIdentityType</v>
       </c>
       <c r="D192" t="str">
         <v/>
       </c>
       <c r="E192" t="str">
-        <v>Month, day, and year of the start date of an education organization's responsibility for a student.</v>
+        <v>The earliest date the student is involved with the program. Typically, this is the date the student becomes eligible for the program.</v>
       </c>
     </row>
     <row r="193">
@@ -3742,7 +3742,7 @@
         <v>xs:date</v>
       </c>
       <c r="C193" t="str">
-        <v>StudentHomelessProgramAssociationIdentityType</v>
+        <v>StudentLanguageInstructionProgramAssociationIdentityType</v>
       </c>
       <c r="D193" t="str">
         <v/>
@@ -3759,7 +3759,7 @@
         <v>xs:date</v>
       </c>
       <c r="C194" t="str">
-        <v>StudentLanguageInstructionProgramAssociationIdentityType</v>
+        <v>StudentMigrantEducationProgramAssociationIdentityType</v>
       </c>
       <c r="D194" t="str">
         <v/>
@@ -3776,7 +3776,7 @@
         <v>xs:date</v>
       </c>
       <c r="C195" t="str">
-        <v>StudentMigrantEducationProgramAssociationIdentityType</v>
+        <v>StudentNeglectedOrDelinquentProgramAssociationIdentityType</v>
       </c>
       <c r="D195" t="str">
         <v/>
@@ -3793,7 +3793,7 @@
         <v>xs:date</v>
       </c>
       <c r="C196" t="str">
-        <v>StudentNeglectedOrDelinquentProgramAssociationIdentityType</v>
+        <v>StudentProgramAssociationIdentityType</v>
       </c>
       <c r="D196" t="str">
         <v/>
@@ -3810,7 +3810,7 @@
         <v>xs:date</v>
       </c>
       <c r="C197" t="str">
-        <v>StudentProgramAssociationIdentityType</v>
+        <v>StudentSchoolFoodServiceProgramAssociationIdentityType</v>
       </c>
       <c r="D197" t="str">
         <v/>
@@ -3827,13 +3827,13 @@
         <v>xs:date</v>
       </c>
       <c r="C198" t="str">
-        <v>StudentSchoolFoodServiceProgramAssociationIdentityType</v>
+        <v>StudentSectionAssociationIdentityType</v>
       </c>
       <c r="D198" t="str">
         <v/>
       </c>
       <c r="E198" t="str">
-        <v>The earliest date the student is involved with the program. Typically, this is the date the student becomes eligible for the program.</v>
+        <v>Month, day, and year of the Student's entry or assignment to the Section.</v>
       </c>
     </row>
     <row r="199">
@@ -3844,13 +3844,13 @@
         <v>xs:date</v>
       </c>
       <c r="C199" t="str">
-        <v>StudentSectionAssociationIdentityType</v>
+        <v>StudentSpecialEducationProgramAssociationIdentityType</v>
       </c>
       <c r="D199" t="str">
         <v/>
       </c>
       <c r="E199" t="str">
-        <v>Month, day, and year of the Student's entry or assignment to the Section.</v>
+        <v>The earliest date the student is involved with the program. Typically, this is the date the student becomes eligible for the program.</v>
       </c>
     </row>
     <row r="200">
@@ -3861,7 +3861,7 @@
         <v>xs:date</v>
       </c>
       <c r="C200" t="str">
-        <v>StudentSpecialEducationProgramAssociationIdentityType</v>
+        <v>StudentTitleIPartAProgramAssociationIdentityType</v>
       </c>
       <c r="D200" t="str">
         <v/>
@@ -3878,13 +3878,13 @@
         <v>xs:date</v>
       </c>
       <c r="C201" t="str">
-        <v>StudentTitleIPartAProgramAssociationIdentityType</v>
+        <v>AssessmentPeriod</v>
       </c>
       <c r="D201" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E201" t="str">
-        <v>The earliest date the student is involved with the program. Typically, this is the date the student becomes eligible for the program.</v>
+        <v>The first date the assessment is to be administered.</v>
       </c>
     </row>
     <row r="202">
@@ -3895,13 +3895,13 @@
         <v>xs:date</v>
       </c>
       <c r="C202" t="str">
-        <v>AssessmentPeriod</v>
+        <v>ContentStandard</v>
       </c>
       <c r="D202" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E202" t="str">
-        <v>The first date the assessment is to be administered.</v>
+        <v>The beginning of the period during which this learning standard document is intended for use.</v>
       </c>
     </row>
     <row r="203">
@@ -3912,13 +3912,13 @@
         <v>xs:date</v>
       </c>
       <c r="C203" t="str">
-        <v>ContentStandard</v>
+        <v>InternationalAddress</v>
       </c>
       <c r="D203" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E203" t="str">
-        <v>The beginning of the period during which this learning standard document is intended for use.</v>
+        <v>The first date the address is valid. For physical addresses, the date the person moved to that address.</v>
       </c>
     </row>
     <row r="204">
@@ -3929,13 +3929,13 @@
         <v>xs:date</v>
       </c>
       <c r="C204" t="str">
-        <v>InternationalAddress</v>
+        <v>Period</v>
       </c>
       <c r="D204" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E204" t="str">
-        <v>The first date the address is valid. For physical addresses, the date the person moved to that address.</v>
+        <v>The month, day, and year for the start of the period.</v>
       </c>
     </row>
     <row r="205">
@@ -3946,30 +3946,31 @@
         <v>xs:date</v>
       </c>
       <c r="C205" t="str">
-        <v>Period</v>
+        <v>ProgramParticipation</v>
       </c>
       <c r="D205" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E205" t="str">
-        <v>The month, day, and year for the start of the period.</v>
-      </c>
-    </row>
-    <row r="206">
+        <v>The date the Student was associated with the Program or service.</v>
+      </c>
+    </row>
+    <row r="206" xml:space="preserve">
       <c r="A206" t="str">
-        <v>BeginDate</v>
+        <v>Behavior</v>
       </c>
       <c r="B206" t="str">
-        <v>xs:date</v>
+        <v>Behavior</v>
       </c>
       <c r="C206" t="str">
-        <v>ProgramParticipation</v>
-      </c>
-      <c r="D206" t="str">
-        <v>minOccurs: 0</v>
+        <v>DisciplineIncident</v>
+      </c>
+      <c r="D206" t="str" xml:space="preserve">
+        <v xml:space="preserve">minOccurs: 0
+maxOccurs: unbounded</v>
       </c>
       <c r="E206" t="str">
-        <v>The date the Student was associated with the Program or service.</v>
+        <v>Describes behavior by category and provides a detailed description.</v>
       </c>
     </row>
     <row r="207" xml:space="preserve">
@@ -3980,7 +3981,7 @@
         <v>Behavior</v>
       </c>
       <c r="C207" t="str">
-        <v>DisciplineIncident</v>
+        <v>StudentDisciplineIncidentAssociation</v>
       </c>
       <c r="D207" t="str" xml:space="preserve">
         <v xml:space="preserve">minOccurs: 0
@@ -3990,19 +3991,18 @@
         <v>Describes behavior by category and provides a detailed description.</v>
       </c>
     </row>
-    <row r="208" xml:space="preserve">
+    <row r="208">
       <c r="A208" t="str">
         <v>Behavior</v>
       </c>
       <c r="B208" t="str">
+        <v>BehaviorDescriptorReferenceType</v>
+      </c>
+      <c r="C208" t="str">
         <v>Behavior</v>
       </c>
-      <c r="C208" t="str">
-        <v>StudentDisciplineIncidentAssociation</v>
-      </c>
-      <c r="D208" t="str" xml:space="preserve">
-        <v xml:space="preserve">minOccurs: 0
-maxOccurs: unbounded</v>
+      <c r="D208" t="str">
+        <v/>
       </c>
       <c r="E208" t="str">
         <v>Describes behavior by category and provides a detailed description.</v>
@@ -4010,53 +4010,53 @@
     </row>
     <row r="209">
       <c r="A209" t="str">
-        <v>Behavior</v>
+        <v>BehaviorDetailedDescription</v>
       </c>
       <c r="B209" t="str">
-        <v>BehaviorDescriptorReferenceType</v>
+        <v>Description</v>
       </c>
       <c r="C209" t="str">
         <v>Behavior</v>
       </c>
       <c r="D209" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E209" t="str">
-        <v>Describes behavior by category and provides a detailed description.</v>
+        <v>Specifies a more granular level of detail of a behavior involved in the incident.</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="str">
-        <v>BehaviorDetailedDescription</v>
+        <v>BellScheduleIdentity</v>
       </c>
       <c r="B210" t="str">
-        <v>Description</v>
+        <v>BellScheduleIdentityType</v>
       </c>
       <c r="C210" t="str">
-        <v>Behavior</v>
+        <v>BellScheduleReferenceType</v>
       </c>
       <c r="D210" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E210" t="str">
-        <v>Specifies a more granular level of detail of a behavior involved in the incident.</v>
+        <v>Identity of a BellSchedule.</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="str">
-        <v>BellScheduleIdentity</v>
+        <v>BellScheduleName</v>
       </c>
       <c r="B211" t="str">
-        <v>BellScheduleIdentityType</v>
+        <v>BellScheduleName</v>
       </c>
       <c r="C211" t="str">
-        <v>BellScheduleReferenceType</v>
+        <v>BellSchedule</v>
       </c>
       <c r="D211" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E211" t="str">
-        <v>Identity of a BellSchedule.</v>
+        <v>Name or title of the BellSchedule.</v>
       </c>
     </row>
     <row r="212">
@@ -4067,7 +4067,7 @@
         <v>BellScheduleName</v>
       </c>
       <c r="C212" t="str">
-        <v>BellSchedule</v>
+        <v>BellScheduleIdentityType</v>
       </c>
       <c r="D212" t="str">
         <v/>
@@ -4078,27 +4078,27 @@
     </row>
     <row r="213">
       <c r="A213" t="str">
-        <v>BellScheduleName</v>
+        <v>BirthCity</v>
       </c>
       <c r="B213" t="str">
-        <v>BellScheduleName</v>
+        <v>City</v>
       </c>
       <c r="C213" t="str">
-        <v>BellScheduleIdentityType</v>
+        <v>BirthData</v>
       </c>
       <c r="D213" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E213" t="str">
-        <v>Name or title of the BellSchedule.</v>
+        <v>The city the student was born in.</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="str">
-        <v>BirthCity</v>
+        <v>BirthCountry</v>
       </c>
       <c r="B214" t="str">
-        <v>City</v>
+        <v>CountryDescriptorReferenceType</v>
       </c>
       <c r="C214" t="str">
         <v>BirthData</v>
@@ -4107,24 +4107,24 @@
         <v>minOccurs: 0</v>
       </c>
       <c r="E214" t="str">
-        <v>The city the student was born in.</v>
+        <v>The country in which an individual is born. It is strongly recommended that entries use only ISO 3166 2-letter country codes.</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="str">
-        <v>BirthCountry</v>
+        <v>BirthData</v>
       </c>
       <c r="B215" t="str">
-        <v>CountryDescriptorReferenceType</v>
+        <v>BirthData</v>
       </c>
       <c r="C215" t="str">
-        <v>BirthData</v>
+        <v>Student</v>
       </c>
       <c r="D215" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E215" t="str">
-        <v>The country in which an individual is born. It is strongly recommended that entries use only ISO 3166 2-letter country codes.</v>
+        <v>The set of elements that capture relevant data regarding a person's birth, including birth date and place of birth.</v>
       </c>
     </row>
     <row r="216">
@@ -4135,10 +4135,10 @@
         <v>BirthData</v>
       </c>
       <c r="C216" t="str">
-        <v>Student</v>
+        <v>StudentLookupType</v>
       </c>
       <c r="D216" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E216" t="str">
         <v>The set of elements that capture relevant data regarding a person's birth, including birth date and place of birth.</v>
@@ -4146,19 +4146,19 @@
     </row>
     <row r="217">
       <c r="A217" t="str">
-        <v>BirthData</v>
+        <v>BirthDate</v>
       </c>
       <c r="B217" t="str">
-        <v>BirthData</v>
+        <v>xs:date</v>
       </c>
       <c r="C217" t="str">
-        <v>StudentLookupType</v>
+        <v>Staff</v>
       </c>
       <c r="D217" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E217" t="str">
-        <v>The set of elements that capture relevant data regarding a person's birth, including birth date and place of birth.</v>
+        <v>The month, day, and year on which an individual was born.</v>
       </c>
     </row>
     <row r="218">
@@ -4169,7 +4169,7 @@
         <v>xs:date</v>
       </c>
       <c r="C218" t="str">
-        <v>Staff</v>
+        <v>StaffLookupType</v>
       </c>
       <c r="D218" t="str">
         <v>minOccurs: 0</v>
@@ -4186,10 +4186,10 @@
         <v>xs:date</v>
       </c>
       <c r="C219" t="str">
-        <v>StaffLookupType</v>
+        <v>BirthData</v>
       </c>
       <c r="D219" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E219" t="str">
         <v>The month, day, and year on which an individual was born.</v>
@@ -4197,27 +4197,27 @@
     </row>
     <row r="220">
       <c r="A220" t="str">
-        <v>BirthDate</v>
+        <v>BirthInternationalProvince</v>
       </c>
       <c r="B220" t="str">
-        <v>xs:date</v>
+        <v>BirthInternationalProvince</v>
       </c>
       <c r="C220" t="str">
         <v>BirthData</v>
       </c>
       <c r="D220" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E220" t="str">
-        <v>The month, day, and year on which an individual was born.</v>
+        <v>For students born outside of the U.S., the Province or jurisdiction in which an individual is born.</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="str">
-        <v>BirthInternationalProvince</v>
+        <v>BirthSex</v>
       </c>
       <c r="B221" t="str">
-        <v>BirthInternationalProvince</v>
+        <v>SexDescriptorReferenceType</v>
       </c>
       <c r="C221" t="str">
         <v>BirthData</v>
@@ -4226,15 +4226,15 @@
         <v>minOccurs: 0</v>
       </c>
       <c r="E221" t="str">
-        <v>For students born outside of the U.S., the Province or jurisdiction in which an individual is born.</v>
+        <v>A person's gender at birth.</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="str">
-        <v>BirthSex</v>
+        <v>BirthStateAbbreviation</v>
       </c>
       <c r="B222" t="str">
-        <v>SexDescriptorReferenceType</v>
+        <v>StateAbbreviationDescriptorReferenceType</v>
       </c>
       <c r="C222" t="str">
         <v>BirthData</v>
@@ -4243,58 +4243,58 @@
         <v>minOccurs: 0</v>
       </c>
       <c r="E222" t="str">
-        <v>A person's gender at birth.</v>
+        <v>The abbreviation for the name of the state (within the United States) or extra-state jurisdiction in which an individual was born.</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="str">
-        <v>BirthStateAbbreviation</v>
+        <v>BudgetIdentity</v>
       </c>
       <c r="B223" t="str">
-        <v>StateAbbreviationDescriptorReferenceType</v>
+        <v>BudgetIdentityType</v>
       </c>
       <c r="C223" t="str">
-        <v>BirthData</v>
+        <v>BudgetReferenceType</v>
       </c>
       <c r="D223" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E223" t="str">
-        <v>The abbreviation for the name of the state (within the United States) or extra-state jurisdiction in which an individual was born.</v>
+        <v>Identity of a Budget.</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="str">
-        <v>BudgetIdentity</v>
+        <v>BuildingSiteNumber</v>
       </c>
       <c r="B224" t="str">
-        <v>BudgetIdentityType</v>
+        <v>BuildingSiteNumber</v>
       </c>
       <c r="C224" t="str">
-        <v>BudgetReferenceType</v>
+        <v>Address</v>
       </c>
       <c r="D224" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E224" t="str">
-        <v>Identity of a Budget.</v>
+        <v>The number of the building on the site, if more than one building shares the same address.</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="str">
-        <v>BuildingSiteNumber</v>
+        <v>CIPCode</v>
       </c>
       <c r="B225" t="str">
-        <v>BuildingSiteNumber</v>
+        <v>CIPCode</v>
       </c>
       <c r="C225" t="str">
-        <v>Address</v>
+        <v>CTEProgram</v>
       </c>
       <c r="D225" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E225" t="str">
-        <v>The number of the building on the site, if more than one building shares the same address.</v>
+        <v>Number and description of the CIP Code associated with the student's CTEProgram.</v>
       </c>
     </row>
     <row r="226">
@@ -4305,134 +4305,134 @@
         <v>CIPCode</v>
       </c>
       <c r="C226" t="str">
-        <v>CTEProgram</v>
+        <v>CTEProgramService</v>
       </c>
       <c r="D226" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E226" t="str">
-        <v>Number and description of the CIP Code associated with the student's CTEProgram.</v>
+        <v>Number and description of the CIP Code associated with the student's CTE Program.</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="str">
-        <v>CIPCode</v>
+        <v>CTECompleter</v>
       </c>
       <c r="B227" t="str">
-        <v>CIPCode</v>
+        <v>xs:boolean</v>
       </c>
       <c r="C227" t="str">
-        <v>CTEProgramService</v>
+        <v>Diploma</v>
       </c>
       <c r="D227" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E227" t="str">
-        <v>Number and description of the CIP Code associated with the student's CTE Program.</v>
+        <v>Indicated a student who reached a state-defined threshold of vocational education and who attained a high school diploma or its recognized state equivalent or GED.</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="str">
-        <v>CTECompleter</v>
+        <v>CTEGraduationRateInclusion</v>
       </c>
       <c r="B228" t="str">
         <v>xs:boolean</v>
       </c>
       <c r="C228" t="str">
-        <v>Diploma</v>
+        <v>StateEducationAgencyAccountability</v>
       </c>
       <c r="D228" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E228" t="str">
-        <v>Indicated a student who reached a state-defined threshold of vocational education and who attained a high school diploma or its recognized state equivalent or GED.</v>
-      </c>
-    </row>
-    <row r="229">
+        <v>An indication of whether CTE concentrators are included in the state's computation of its graduation rate.</v>
+      </c>
+    </row>
+    <row r="229" xml:space="preserve">
       <c r="A229" t="str">
-        <v>CTEGraduationRateInclusion</v>
+        <v>CTEProgram</v>
       </c>
       <c r="B229" t="str">
-        <v>xs:boolean</v>
+        <v>CTEProgram</v>
       </c>
       <c r="C229" t="str">
-        <v>StateEducationAgencyAccountability</v>
-      </c>
-      <c r="D229" t="str">
-        <v>minOccurs: 0</v>
-      </c>
-      <c r="E229" t="str">
-        <v>An indication of whether CTE concentrators are included in the state's computation of its graduation rate.</v>
-      </c>
-    </row>
-    <row r="230" xml:space="preserve">
-      <c r="A230" t="str">
-        <v>CTEProgram</v>
-      </c>
-      <c r="B230" t="str">
-        <v>CTEProgram</v>
-      </c>
-      <c r="C230" t="str">
         <v>StudentCTEProgramAssociation</v>
       </c>
-      <c r="D230" t="str" xml:space="preserve">
+      <c r="D229" t="str" xml:space="preserve">
         <v xml:space="preserve">minOccurs: 0
 maxOccurs: unbounded</v>
       </c>
+      <c r="E229" t="str">
+        <v>The career cluster representing the career path of the Vocational/Career Tech concentrator.</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="str">
+        <v>CTEProgramCompletionIndicator</v>
+      </c>
+      <c r="B230" t="str">
+        <v>xs:boolean</v>
+      </c>
+      <c r="C230" t="str">
+        <v>CTEProgram</v>
+      </c>
+      <c r="D230" t="str">
+        <v>minOccurs: 0</v>
+      </c>
       <c r="E230" t="str">
-        <v>The career cluster representing the career path of the Vocational/Career Tech concentrator.</v>
-      </c>
-    </row>
-    <row r="231">
+        <v>A boolean indicator of whether the Student has completed the CTEProgram.</v>
+      </c>
+    </row>
+    <row r="231" xml:space="preserve">
       <c r="A231" t="str">
-        <v>CTEProgramCompletionIndicator</v>
+        <v>CTEProgramService</v>
       </c>
       <c r="B231" t="str">
-        <v>xs:boolean</v>
+        <v>CTEProgramService</v>
       </c>
       <c r="C231" t="str">
-        <v>CTEProgram</v>
-      </c>
-      <c r="D231" t="str">
-        <v>minOccurs: 0</v>
+        <v>StudentCTEProgramAssociation</v>
+      </c>
+      <c r="D231" t="str" xml:space="preserve">
+        <v xml:space="preserve">minOccurs: 0
+maxOccurs: unbounded</v>
       </c>
       <c r="E231" t="str">
-        <v>A boolean indicator of whether the Student has completed the CTEProgram.</v>
-      </c>
-    </row>
-    <row r="232" xml:space="preserve">
+        <v>Indicates the Service(s) being provided to the Student by the CTE Program.</v>
+      </c>
+    </row>
+    <row r="232">
       <c r="A232" t="str">
         <v>CTEProgramService</v>
       </c>
       <c r="B232" t="str">
+        <v>CTEProgramServiceDescriptorReferenceType</v>
+      </c>
+      <c r="C232" t="str">
         <v>CTEProgramService</v>
       </c>
-      <c r="C232" t="str">
-        <v>StudentCTEProgramAssociation</v>
-      </c>
-      <c r="D232" t="str" xml:space="preserve">
-        <v xml:space="preserve">minOccurs: 0
-maxOccurs: unbounded</v>
+      <c r="D232" t="str">
+        <v/>
       </c>
       <c r="E232" t="str">
-        <v>Indicates the Service(s) being provided to the Student by the CTE Program.</v>
+        <v>Indicates the service being provided to the student by the CTE Program.</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="str">
-        <v>CTEProgramService</v>
+        <v>CalendarCode</v>
       </c>
       <c r="B233" t="str">
-        <v>CTEProgramServiceDescriptorReferenceType</v>
+        <v>IdentificationCode</v>
       </c>
       <c r="C233" t="str">
-        <v>CTEProgramService</v>
+        <v>Calendar</v>
       </c>
       <c r="D233" t="str">
         <v/>
       </c>
       <c r="E233" t="str">
-        <v>Indicates the service being provided to the student by the CTE Program.</v>
+        <v>The identifier for the Calendar.</v>
       </c>
     </row>
     <row r="234">
@@ -4443,7 +4443,7 @@
         <v>IdentificationCode</v>
       </c>
       <c r="C234" t="str">
-        <v>Calendar</v>
+        <v>CalendarIdentityType</v>
       </c>
       <c r="D234" t="str">
         <v/>
@@ -4454,36 +4454,36 @@
     </row>
     <row r="235">
       <c r="A235" t="str">
-        <v>CalendarCode</v>
+        <v>CalendarDateIdentity</v>
       </c>
       <c r="B235" t="str">
-        <v>IdentificationCode</v>
+        <v>CalendarDateIdentityType</v>
       </c>
       <c r="C235" t="str">
-        <v>CalendarIdentityType</v>
+        <v>CalendarDateReferenceType</v>
       </c>
       <c r="D235" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E235" t="str">
-        <v>The identifier for the Calendar.</v>
+        <v>Identity of a CalendarDate.</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="str">
-        <v>CalendarDateIdentity</v>
+        <v>CalendarDateReference</v>
       </c>
       <c r="B236" t="str">
-        <v>CalendarDateIdentityType</v>
+        <v>CalendarDateReferenceType</v>
       </c>
       <c r="C236" t="str">
-        <v>CalendarDateReferenceType</v>
+        <v>SectionAttendanceTakenEvent</v>
       </c>
       <c r="D236" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E236" t="str">
-        <v>Identity of a CalendarDate.</v>
+        <v>Reference to the instructional day associated with SectionAttendanceEvent.</v>
       </c>
     </row>
     <row r="237">
@@ -4494,7 +4494,7 @@
         <v>CalendarDateReferenceType</v>
       </c>
       <c r="C237" t="str">
-        <v>SectionAttendanceTakenEvent</v>
+        <v>SectionAttendanceTakenEventIdentityType</v>
       </c>
       <c r="D237" t="str">
         <v/>
@@ -4505,53 +4505,53 @@
     </row>
     <row r="238">
       <c r="A238" t="str">
-        <v>CalendarDateReference</v>
+        <v>CalendarEvent</v>
       </c>
       <c r="B238" t="str">
-        <v>CalendarDateReferenceType</v>
+        <v>CalendarEventDescriptorReferenceType</v>
       </c>
       <c r="C238" t="str">
-        <v>SectionAttendanceTakenEventIdentityType</v>
+        <v>CalendarDate</v>
       </c>
       <c r="D238" t="str">
-        <v/>
+        <v>maxOccurs: unbounded</v>
       </c>
       <c r="E238" t="str">
-        <v>Reference to the instructional day associated with SectionAttendanceEvent.</v>
+        <v>The type of scheduled or unscheduled event for the day.</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="str">
-        <v>CalendarEvent</v>
+        <v>CalendarIdentity</v>
       </c>
       <c r="B239" t="str">
-        <v>CalendarEventDescriptorReferenceType</v>
+        <v>CalendarIdentityType</v>
       </c>
       <c r="C239" t="str">
-        <v>CalendarDate</v>
+        <v>CalendarReferenceType</v>
       </c>
       <c r="D239" t="str">
-        <v>maxOccurs: unbounded</v>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E239" t="str">
-        <v>The type of scheduled or unscheduled event for the day.</v>
+        <v>Identity of a Calendar.</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="str">
-        <v>CalendarIdentity</v>
+        <v>CalendarReference</v>
       </c>
       <c r="B240" t="str">
-        <v>CalendarIdentityType</v>
+        <v>CalendarReferenceType</v>
       </c>
       <c r="C240" t="str">
-        <v>CalendarReferenceType</v>
+        <v>CalendarDate</v>
       </c>
       <c r="D240" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E240" t="str">
-        <v>Identity of a Calendar.</v>
+        <v>Reference to the Calendar associated to the CalendarEvent.</v>
       </c>
     </row>
     <row r="241">
@@ -4562,13 +4562,13 @@
         <v>CalendarReferenceType</v>
       </c>
       <c r="C241" t="str">
-        <v>CalendarDate</v>
+        <v>StaffSchoolAssociation</v>
       </c>
       <c r="D241" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E241" t="str">
-        <v>Reference to the Calendar associated to the CalendarEvent.</v>
+        <v>Reference to the Calendar associated with the StaffSchoolAssociation.</v>
       </c>
     </row>
     <row r="242">
@@ -4579,13 +4579,13 @@
         <v>CalendarReferenceType</v>
       </c>
       <c r="C242" t="str">
-        <v>StaffSchoolAssociation</v>
+        <v>StudentSchoolAssociation</v>
       </c>
       <c r="D242" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E242" t="str">
-        <v>Reference to the Calendar associated with the StaffSchoolAssociation.</v>
+        <v>A reference to the student's calendar.</v>
       </c>
     </row>
     <row r="243">
@@ -4596,47 +4596,47 @@
         <v>CalendarReferenceType</v>
       </c>
       <c r="C243" t="str">
-        <v>StudentSchoolAssociation</v>
+        <v>CalendarDateIdentityType</v>
       </c>
       <c r="D243" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E243" t="str">
-        <v>A reference to the student's calendar.</v>
+        <v>Reference to the Calendar associated to the CalendarEvent.</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="str">
-        <v>CalendarReference</v>
+        <v>CalendarType</v>
       </c>
       <c r="B244" t="str">
-        <v>CalendarReferenceType</v>
+        <v>CalendarTypeDescriptorReferenceType</v>
       </c>
       <c r="C244" t="str">
-        <v>CalendarDateIdentityType</v>
+        <v>Calendar</v>
       </c>
       <c r="D244" t="str">
         <v/>
       </c>
       <c r="E244" t="str">
-        <v>Reference to the Calendar associated to the CalendarEvent.</v>
+        <v>Indicates the type of Calendar.</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="str">
-        <v>CalendarType</v>
+        <v>CareerPathway</v>
       </c>
       <c r="B245" t="str">
-        <v>CalendarTypeDescriptorReferenceType</v>
+        <v>CareerPathwayDescriptorReferenceType</v>
       </c>
       <c r="C245" t="str">
-        <v>Calendar</v>
+        <v>Course</v>
       </c>
       <c r="D245" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E245" t="str">
-        <v>Indicates the type of Calendar.</v>
+        <v>Indicates the career cluster or pathway the course is associated with as part of a CTE curriculum.</v>
       </c>
     </row>
     <row r="246">
@@ -4647,55 +4647,55 @@
         <v>CareerPathwayDescriptorReferenceType</v>
       </c>
       <c r="C246" t="str">
-        <v>Course</v>
+        <v>CTEProgram</v>
       </c>
       <c r="D246" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E246" t="str">
-        <v>Indicates the career cluster or pathway the course is associated with as part of a CTE curriculum.</v>
+        <v>A sequence of courses within an area of interest that is a student's educational road map to a chosen career.</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="str">
-        <v>CareerPathway</v>
+        <v>CaseNumber</v>
       </c>
       <c r="B247" t="str">
-        <v>CareerPathwayDescriptorReferenceType</v>
+        <v>CaseNumber</v>
       </c>
       <c r="C247" t="str">
-        <v>CTEProgram</v>
+        <v>DisciplineIncident</v>
       </c>
       <c r="D247" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E247" t="str">
-        <v>A sequence of courses within an area of interest that is a student's educational road map to a chosen career.</v>
+        <v>The case number assigned to the DisciplineIncident by law enforcement or other organization.</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="str">
-        <v>CaseNumber</v>
+        <v>CharterApprovalAgencyType</v>
       </c>
       <c r="B248" t="str">
-        <v>CaseNumber</v>
+        <v>CharterApprovalAgencyTypeDescriptorReferenceType</v>
       </c>
       <c r="C248" t="str">
-        <v>DisciplineIncident</v>
+        <v>School</v>
       </c>
       <c r="D248" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E248" t="str">
-        <v>The case number assigned to the DisciplineIncident by law enforcement or other organization.</v>
+        <v>The type of agency that approved the establishment or continuation of a charter school.</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="str">
-        <v>CharterApprovalAgencyType</v>
+        <v>CharterApprovalSchoolYear</v>
       </c>
       <c r="B249" t="str">
-        <v>CharterApprovalAgencyTypeDescriptorReferenceType</v>
+        <v>SchoolYearType</v>
       </c>
       <c r="C249" t="str">
         <v>School</v>
@@ -4704,24 +4704,24 @@
         <v>minOccurs: 0</v>
       </c>
       <c r="E249" t="str">
-        <v>The type of agency that approved the establishment or continuation of a charter school.</v>
+        <v>The school year in which a charter school was initially approved.</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="str">
-        <v>CharterApprovalSchoolYear</v>
+        <v>CharterStatus</v>
       </c>
       <c r="B250" t="str">
-        <v>SchoolYearType</v>
+        <v>CharterStatusDescriptorReferenceType</v>
       </c>
       <c r="C250" t="str">
-        <v>School</v>
+        <v>LocalEducationAgency</v>
       </c>
       <c r="D250" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E250" t="str">
-        <v>The school year in which a charter school was initially approved.</v>
+        <v>A school or agency providing free public elementary or secondary education to eligible students under a specific charter granted by the state legislature or other appropriate authority and designated by such authority to be a charter school.</v>
       </c>
     </row>
     <row r="251">
@@ -4732,7 +4732,7 @@
         <v>CharterStatusDescriptorReferenceType</v>
       </c>
       <c r="C251" t="str">
-        <v>LocalEducationAgency</v>
+        <v>School</v>
       </c>
       <c r="D251" t="str">
         <v>minOccurs: 0</v>
@@ -4743,19 +4743,19 @@
     </row>
     <row r="252">
       <c r="A252" t="str">
-        <v>CharterStatus</v>
+        <v>Citizenship</v>
       </c>
       <c r="B252" t="str">
-        <v>CharterStatusDescriptorReferenceType</v>
+        <v>Citizenship</v>
       </c>
       <c r="C252" t="str">
-        <v>School</v>
+        <v>Staff</v>
       </c>
       <c r="D252" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E252" t="str">
-        <v>A school or agency providing free public elementary or secondary education to eligible students under a specific charter granted by the state legislature or other appropriate authority and designated by such authority to be a charter school.</v>
+        <v>Contains information relative to U.S. citizenship status and its associated probationary documentation.</v>
       </c>
     </row>
     <row r="253">
@@ -4766,7 +4766,7 @@
         <v>Citizenship</v>
       </c>
       <c r="C253" t="str">
-        <v>Staff</v>
+        <v>Student</v>
       </c>
       <c r="D253" t="str">
         <v>minOccurs: 0</v>
@@ -4777,87 +4777,87 @@
     </row>
     <row r="254">
       <c r="A254" t="str">
+        <v>CitizenshipStatus</v>
+      </c>
+      <c r="B254" t="str">
+        <v>CitizenshipStatusDescriptorReferenceType</v>
+      </c>
+      <c r="C254" t="str">
         <v>Citizenship</v>
       </c>
-      <c r="B254" t="str">
-        <v>Citizenship</v>
-      </c>
-      <c r="C254" t="str">
-        <v>Student</v>
-      </c>
       <c r="D254" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E254" t="str">
-        <v>Contains information relative to U.S. citizenship status and its associated probationary documentation.</v>
+        <v>An indicator of whether or not the person is a U.S. citizen.</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="str">
-        <v>CitizenshipStatus</v>
+        <v>City</v>
       </c>
       <c r="B255" t="str">
-        <v>CitizenshipStatusDescriptorReferenceType</v>
+        <v>City</v>
       </c>
       <c r="C255" t="str">
-        <v>Citizenship</v>
+        <v>Address</v>
       </c>
       <c r="D255" t="str">
         <v/>
       </c>
       <c r="E255" t="str">
-        <v>An indicator of whether or not the person is a U.S. citizen.</v>
+        <v>The name of the city in which an address is located.</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="str">
-        <v>City</v>
+        <v>ClassOfSchoolYear</v>
       </c>
       <c r="B256" t="str">
-        <v>City</v>
+        <v>SchoolYearType</v>
       </c>
       <c r="C256" t="str">
-        <v>Address</v>
+        <v>StudentSchoolAssociation</v>
       </c>
       <c r="D256" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E256" t="str">
-        <v>The name of the city in which an address is located.</v>
+        <v>Projected High School graduation year.</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="str">
-        <v>ClassOfSchoolYear</v>
+        <v>ClassPeriodIdentity</v>
       </c>
       <c r="B257" t="str">
-        <v>SchoolYearType</v>
+        <v>ClassPeriodIdentityType</v>
       </c>
       <c r="C257" t="str">
-        <v>StudentSchoolAssociation</v>
+        <v>ClassPeriodReferenceType</v>
       </c>
       <c r="D257" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E257" t="str">
-        <v>Projected High School graduation year.</v>
+        <v>Identity of a ClassPeriod.</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="str">
-        <v>ClassPeriodIdentity</v>
+        <v>ClassPeriodName</v>
       </c>
       <c r="B258" t="str">
-        <v>ClassPeriodIdentityType</v>
+        <v>ClassPeriodName</v>
       </c>
       <c r="C258" t="str">
-        <v>ClassPeriodReferenceType</v>
+        <v>ClassPeriod</v>
       </c>
       <c r="D258" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E258" t="str">
-        <v>Identity of a ClassPeriod.</v>
+        <v>An indication of the portion of a typical daily session in which students receive instruction in a specified subject (e.g., morning, sixth period, block period, or AB schedules).</v>
       </c>
     </row>
     <row r="259">
@@ -4868,7 +4868,7 @@
         <v>ClassPeriodName</v>
       </c>
       <c r="C259" t="str">
-        <v>ClassPeriod</v>
+        <v>ClassPeriodIdentityType</v>
       </c>
       <c r="D259" t="str">
         <v/>
@@ -4879,22 +4879,22 @@
     </row>
     <row r="260">
       <c r="A260" t="str">
-        <v>ClassPeriodName</v>
+        <v>ClassPeriodReference</v>
       </c>
       <c r="B260" t="str">
-        <v>ClassPeriodName</v>
+        <v>ClassPeriodReferenceType</v>
       </c>
       <c r="C260" t="str">
-        <v>ClassPeriodIdentityType</v>
+        <v>BellSchedule</v>
       </c>
       <c r="D260" t="str">
-        <v/>
+        <v>maxOccurs: unbounded</v>
       </c>
       <c r="E260" t="str">
-        <v>An indication of the portion of a typical daily session in which students receive instruction in a specified subject (e.g., morning, sixth period, block period, or AB schedules).</v>
-      </c>
-    </row>
-    <row r="261">
+        <v>The class periods that compose this BellSchedule.</v>
+      </c>
+    </row>
+    <row r="261" xml:space="preserve">
       <c r="A261" t="str">
         <v>ClassPeriodReference</v>
       </c>
@@ -4902,48 +4902,48 @@
         <v>ClassPeriodReferenceType</v>
       </c>
       <c r="C261" t="str">
-        <v>BellSchedule</v>
-      </c>
-      <c r="D261" t="str">
-        <v>maxOccurs: unbounded</v>
-      </c>
-      <c r="E261" t="str">
-        <v>The class periods that compose this BellSchedule.</v>
-      </c>
-    </row>
-    <row r="262" xml:space="preserve">
-      <c r="A262" t="str">
-        <v>ClassPeriodReference</v>
-      </c>
-      <c r="B262" t="str">
-        <v>ClassPeriodReferenceType</v>
-      </c>
-      <c r="C262" t="str">
         <v>Section</v>
       </c>
-      <c r="D262" t="str" xml:space="preserve">
+      <c r="D261" t="str" xml:space="preserve">
         <v xml:space="preserve">minOccurs: 0
 maxOccurs: unbounded</v>
       </c>
+      <c r="E261" t="str">
+        <v>The class period during which the Section meets.</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="str">
+        <v>ClassRank</v>
+      </c>
+      <c r="B262" t="str">
+        <v>xs:int</v>
+      </c>
+      <c r="C262" t="str">
+        <v>ClassRanking</v>
+      </c>
+      <c r="D262" t="str">
+        <v/>
+      </c>
       <c r="E262" t="str">
-        <v>The class period during which the Section meets.</v>
+        <v>The academic rank of a student in relation to his or her graduating class (e.g., 1st, 2nd, 3rd).</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="str">
-        <v>ClassRank</v>
+        <v>ClassRanking</v>
       </c>
       <c r="B263" t="str">
-        <v>xs:int</v>
+        <v>ClassRanking</v>
       </c>
       <c r="C263" t="str">
-        <v>ClassRanking</v>
+        <v>StudentAcademicRecord</v>
       </c>
       <c r="D263" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E263" t="str">
-        <v>The academic rank of a student in relation to his or her graduating class (e.g., 1st, 2nd, 3rd).</v>
+        <v>The academic rank information of a student in relation to his or her graduating class.</v>
       </c>
     </row>
     <row r="264">
@@ -4954,7 +4954,7 @@
         <v>ClassRanking</v>
       </c>
       <c r="C264" t="str">
-        <v>StudentAcademicRecord</v>
+        <v>EXTENSION-StudentAcademicRecord</v>
       </c>
       <c r="D264" t="str">
         <v>minOccurs: 0</v>
@@ -4965,36 +4965,36 @@
     </row>
     <row r="265">
       <c r="A265" t="str">
+        <v>ClassRankingDate</v>
+      </c>
+      <c r="B265" t="str">
+        <v>xs:date</v>
+      </c>
+      <c r="C265" t="str">
         <v>ClassRanking</v>
       </c>
-      <c r="B265" t="str">
-        <v>ClassRanking</v>
-      </c>
-      <c r="C265" t="str">
-        <v>EXTENSION-StudentAcademicRecord</v>
-      </c>
       <c r="D265" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E265" t="str">
-        <v>The academic rank information of a student in relation to his or her graduating class.</v>
+        <v>Date class ranking was determined.</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="str">
-        <v>ClassRankingDate</v>
+        <v>ClassroomIdentificationCode</v>
       </c>
       <c r="B266" t="str">
-        <v>xs:date</v>
+        <v>ClassroomIdentificationCode</v>
       </c>
       <c r="C266" t="str">
-        <v>ClassRanking</v>
+        <v>Location</v>
       </c>
       <c r="D266" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E266" t="str">
-        <v>Date class ranking was determined.</v>
+        <v>A unique number or alphanumeric code assigned to a room by a school, school system, state, or other agency or entity.</v>
       </c>
     </row>
     <row r="267">
@@ -5005,7 +5005,7 @@
         <v>ClassroomIdentificationCode</v>
       </c>
       <c r="C267" t="str">
-        <v>Location</v>
+        <v>LocationIdentityType</v>
       </c>
       <c r="D267" t="str">
         <v/>
@@ -5014,73 +5014,73 @@
         <v>A unique number or alphanumeric code assigned to a room by a school, school system, state, or other agency or entity.</v>
       </c>
     </row>
-    <row r="268">
+    <row r="268" xml:space="preserve">
       <c r="A268" t="str">
-        <v>ClassroomIdentificationCode</v>
+        <v>ClassroomPosition</v>
       </c>
       <c r="B268" t="str">
-        <v>ClassroomIdentificationCode</v>
+        <v>ClassroomPositionDescriptorReferenceType</v>
       </c>
       <c r="C268" t="str">
-        <v>LocationIdentityType</v>
+        <v>StaffSectionAssociation</v>
       </c>
       <c r="D268" t="str">
         <v/>
       </c>
-      <c r="E268" t="str">
-        <v>A unique number or alphanumeric code assigned to a room by a school, school system, state, or other agency or entity.</v>
-      </c>
-    </row>
-    <row r="269" xml:space="preserve">
-      <c r="A269" t="str">
-        <v>ClassroomPosition</v>
-      </c>
-      <c r="B269" t="str">
-        <v>ClassroomPositionDescriptorReferenceType</v>
-      </c>
-      <c r="C269" t="str">
-        <v>StaffSectionAssociation</v>
-      </c>
-      <c r="D269" t="str">
-        <v/>
-      </c>
-      <c r="E269" t="str" xml:space="preserve">
+      <c r="E268" t="str" xml:space="preserve">
         <v xml:space="preserve">The type of position the Staff member holds in the specific class/section; for example:_x000d_
         Teacher of Record, Assistant Teacher, Support Teacher, Substitute Teacher...</v>
       </c>
     </row>
+    <row r="269">
+      <c r="A269" t="str">
+        <v>CodeValue</v>
+      </c>
+      <c r="B269" t="str">
+        <v>CodeValue</v>
+      </c>
+      <c r="C269" t="str">
+        <v>DescriptorType</v>
+      </c>
+      <c r="D269" t="str">
+        <v/>
+      </c>
+      <c r="E269" t="str">
+        <v>A code or abbreviation that is used to refer to the descriptor.</v>
+      </c>
+    </row>
     <row r="270">
       <c r="A270" t="str">
-        <v>CodeValue</v>
+        <v>CohortDescription</v>
       </c>
       <c r="B270" t="str">
-        <v>CodeValue</v>
+        <v>CohortDescription</v>
       </c>
       <c r="C270" t="str">
-        <v>DescriptorType</v>
+        <v>Cohort</v>
       </c>
       <c r="D270" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E270" t="str">
-        <v>A code or abbreviation that is used to refer to the descriptor.</v>
+        <v>The description of the Cohort and its purpose.</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="str">
-        <v>CohortDescription</v>
+        <v>CohortIdentifier</v>
       </c>
       <c r="B271" t="str">
-        <v>CohortDescription</v>
+        <v>CohortIdentifier</v>
       </c>
       <c r="C271" t="str">
         <v>Cohort</v>
       </c>
       <c r="D271" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E271" t="str">
-        <v>The description of the Cohort and its purpose.</v>
+        <v>The name or ID for the Cohort.</v>
       </c>
     </row>
     <row r="272">
@@ -5091,7 +5091,7 @@
         <v>CohortIdentifier</v>
       </c>
       <c r="C272" t="str">
-        <v>Cohort</v>
+        <v>CohortIdentityType</v>
       </c>
       <c r="D272" t="str">
         <v/>
@@ -5102,36 +5102,36 @@
     </row>
     <row r="273">
       <c r="A273" t="str">
-        <v>CohortIdentifier</v>
+        <v>CohortIdentity</v>
       </c>
       <c r="B273" t="str">
-        <v>CohortIdentifier</v>
+        <v>CohortIdentityType</v>
       </c>
       <c r="C273" t="str">
-        <v>CohortIdentityType</v>
+        <v>CohortReferenceType</v>
       </c>
       <c r="D273" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E273" t="str">
-        <v>The name or ID for the Cohort.</v>
+        <v>Identity of a Cohort.</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="str">
-        <v>CohortIdentity</v>
+        <v>CohortReference</v>
       </c>
       <c r="B274" t="str">
-        <v>CohortIdentityType</v>
+        <v>CohortReferenceType</v>
       </c>
       <c r="C274" t="str">
-        <v>CohortReferenceType</v>
+        <v>StaffCohortAssociation</v>
       </c>
       <c r="D274" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E274" t="str">
-        <v>Identity of a Cohort.</v>
+        <v>Reference to the Cohort associated with the Staff.</v>
       </c>
     </row>
     <row r="275">
@@ -5142,13 +5142,13 @@
         <v>CohortReferenceType</v>
       </c>
       <c r="C275" t="str">
-        <v>StaffCohortAssociation</v>
+        <v>StudentCohortAssociation</v>
       </c>
       <c r="D275" t="str">
         <v/>
       </c>
       <c r="E275" t="str">
-        <v>Reference to the Cohort associated with the Staff.</v>
+        <v>Reference to the Cohort associated with the Student.</v>
       </c>
     </row>
     <row r="276">
@@ -5159,13 +5159,13 @@
         <v>CohortReferenceType</v>
       </c>
       <c r="C276" t="str">
-        <v>StudentCohortAssociation</v>
+        <v>StudentInterventionAssociation</v>
       </c>
       <c r="D276" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E276" t="str">
-        <v>Reference to the Cohort associated with the Student.</v>
+        <v>Relates the cohort, if the student's membership in this cohort is the reason he or she is participating in this intervention.</v>
       </c>
     </row>
     <row r="277">
@@ -5176,13 +5176,13 @@
         <v>CohortReferenceType</v>
       </c>
       <c r="C277" t="str">
-        <v>StudentInterventionAssociation</v>
+        <v>StaffCohortAssociationIdentityType</v>
       </c>
       <c r="D277" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E277" t="str">
-        <v>Relates the cohort, if the student's membership in this cohort is the reason he or she is participating in this intervention.</v>
+        <v>Reference to the Cohort associated with the Staff.</v>
       </c>
     </row>
     <row r="278">
@@ -5193,99 +5193,99 @@
         <v>CohortReferenceType</v>
       </c>
       <c r="C278" t="str">
-        <v>StaffCohortAssociationIdentityType</v>
+        <v>StudentCohortAssociationIdentityType</v>
       </c>
       <c r="D278" t="str">
         <v/>
       </c>
       <c r="E278" t="str">
-        <v>Reference to the Cohort associated with the Staff.</v>
+        <v>Reference to the Cohort associated with the Student.</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="str">
-        <v>CohortReference</v>
+        <v>CohortScope</v>
       </c>
       <c r="B279" t="str">
-        <v>CohortReferenceType</v>
+        <v>CohortScopeDescriptorReferenceType</v>
       </c>
       <c r="C279" t="str">
-        <v>StudentCohortAssociationIdentityType</v>
+        <v>Cohort</v>
       </c>
       <c r="D279" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E279" t="str">
-        <v>Reference to the Cohort associated with the Student.</v>
+        <v>The scope of cohort (e.g., school, district, classroom).</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="str">
-        <v>CohortScope</v>
+        <v>CohortType</v>
       </c>
       <c r="B280" t="str">
-        <v>CohortScopeDescriptorReferenceType</v>
+        <v>CohortTypeDescriptorReferenceType</v>
       </c>
       <c r="C280" t="str">
         <v>Cohort</v>
       </c>
       <c r="D280" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E280" t="str">
-        <v>The scope of cohort (e.g., school, district, classroom).</v>
-      </c>
-    </row>
-    <row r="281">
+        <v>The type of cohort (e.g., academic intervention, classroom breakout).</v>
+      </c>
+    </row>
+    <row r="281" xml:space="preserve">
       <c r="A281" t="str">
-        <v>CohortType</v>
+        <v>CohortYear</v>
       </c>
       <c r="B281" t="str">
-        <v>CohortTypeDescriptorReferenceType</v>
+        <v>CohortYear</v>
       </c>
       <c r="C281" t="str">
-        <v>Cohort</v>
-      </c>
-      <c r="D281" t="str">
-        <v/>
-      </c>
-      <c r="E281" t="str">
-        <v>The type of cohort (e.g., academic intervention, classroom breakout).</v>
-      </c>
-    </row>
-    <row r="282" xml:space="preserve">
-      <c r="A282" t="str">
-        <v>CohortYear</v>
-      </c>
-      <c r="B282" t="str">
-        <v>CohortYear</v>
-      </c>
-      <c r="C282" t="str">
         <v>StudentEducationOrganizationAssociation</v>
       </c>
-      <c r="D282" t="str" xml:space="preserve">
+      <c r="D281" t="str" xml:space="preserve">
         <v xml:space="preserve">minOccurs: 0
 maxOccurs: unbounded</v>
       </c>
+      <c r="E281" t="str">
+        <v>The type and year of a cohort (e.g., 9th grade) the student belongs to as determined by the year that student entered a specific grade.</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="str">
+        <v>CohortYearType</v>
+      </c>
+      <c r="B282" t="str">
+        <v>CohortYearTypeDescriptorReferenceType</v>
+      </c>
+      <c r="C282" t="str">
+        <v>CohortYear</v>
+      </c>
+      <c r="D282" t="str">
+        <v/>
+      </c>
       <c r="E282" t="str">
-        <v>The type and year of a cohort (e.g., 9th grade) the student belongs to as determined by the year that student entered a specific grade.</v>
+        <v>The type of cohort year (9th grade, graduation).</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="str">
-        <v>CohortYearType</v>
+        <v>CommunityOrganizationId</v>
       </c>
       <c r="B283" t="str">
-        <v>CohortYearTypeDescriptorReferenceType</v>
+        <v>xs:int</v>
       </c>
       <c r="C283" t="str">
-        <v>CohortYear</v>
+        <v>CommunityOrganization</v>
       </c>
       <c r="D283" t="str">
         <v/>
       </c>
       <c r="E283" t="str">
-        <v>The type of cohort year (9th grade, graduation).</v>
+        <v>The identifier assigned to a CommunityOrganization.</v>
       </c>
     </row>
     <row r="284">
@@ -5296,7 +5296,7 @@
         <v>xs:int</v>
       </c>
       <c r="C284" t="str">
-        <v>CommunityOrganization</v>
+        <v>CommunityOrganizationIdentityType</v>
       </c>
       <c r="D284" t="str">
         <v/>
@@ -5307,53 +5307,53 @@
     </row>
     <row r="285">
       <c r="A285" t="str">
-        <v>CommunityOrganizationId</v>
+        <v>CommunityOrganizationIdentity</v>
       </c>
       <c r="B285" t="str">
-        <v>xs:int</v>
+        <v>CommunityOrganizationIdentityType</v>
       </c>
       <c r="C285" t="str">
-        <v>CommunityOrganizationIdentityType</v>
+        <v>CommunityOrganizationReferenceType</v>
       </c>
       <c r="D285" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E285" t="str">
-        <v>The identifier assigned to a CommunityOrganization.</v>
+        <v>Encapsulates primary attributes that can be used to look up the identity of a CommunityOrganization.</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="str">
-        <v>CommunityOrganizationIdentity</v>
+        <v>CommunityOrganizationReference</v>
       </c>
       <c r="B286" t="str">
-        <v>CommunityOrganizationIdentityType</v>
+        <v>CommunityOrganizationReferenceType</v>
       </c>
       <c r="C286" t="str">
-        <v>CommunityOrganizationReferenceType</v>
+        <v>CommunityProvider</v>
       </c>
       <c r="D286" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E286" t="str">
-        <v>Encapsulates primary attributes that can be used to look up the identity of a CommunityOrganization.</v>
+        <v>CommunityOrganization of which the CommunityProvider is an organizational component.</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="str">
-        <v>CommunityOrganizationReference</v>
+        <v>CommunityProviderId</v>
       </c>
       <c r="B287" t="str">
-        <v>CommunityOrganizationReferenceType</v>
+        <v>xs:int</v>
       </c>
       <c r="C287" t="str">
         <v>CommunityProvider</v>
       </c>
       <c r="D287" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E287" t="str">
-        <v>CommunityOrganization of which the CommunityProvider is an organizational component.</v>
+        <v>The identifier assigned to a CommunityProvider.</v>
       </c>
     </row>
     <row r="288">
@@ -5364,7 +5364,7 @@
         <v>xs:int</v>
       </c>
       <c r="C288" t="str">
-        <v>CommunityProvider</v>
+        <v>CommunityProviderIdentityType</v>
       </c>
       <c r="D288" t="str">
         <v/>
@@ -5375,53 +5375,53 @@
     </row>
     <row r="289">
       <c r="A289" t="str">
-        <v>CommunityProviderId</v>
+        <v>CommunityProviderIdentity</v>
       </c>
       <c r="B289" t="str">
-        <v>xs:int</v>
+        <v>CommunityProviderIdentityType</v>
       </c>
       <c r="C289" t="str">
-        <v>CommunityProviderIdentityType</v>
+        <v>CommunityProviderReferenceType</v>
       </c>
       <c r="D289" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E289" t="str">
-        <v>The identifier assigned to a CommunityProvider.</v>
+        <v>Encapsulates primary attributes that can be used to look up the identity of a CommunityProvider.</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="str">
-        <v>CommunityProviderIdentity</v>
+        <v>CommunityProviderLicenseIdentity</v>
       </c>
       <c r="B290" t="str">
-        <v>CommunityProviderIdentityType</v>
+        <v>CommunityProviderLicenseIdentityType</v>
       </c>
       <c r="C290" t="str">
-        <v>CommunityProviderReferenceType</v>
+        <v>CommunityProviderLicenseReferenceType</v>
       </c>
       <c r="D290" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E290" t="str">
-        <v>Encapsulates primary attributes that can be used to look up the identity of a CommunityProvider.</v>
+        <v>Identity of a CommunityProviderLicense.</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="str">
-        <v>CommunityProviderLicenseIdentity</v>
+        <v>CommunityProviderReference</v>
       </c>
       <c r="B291" t="str">
-        <v>CommunityProviderLicenseIdentityType</v>
+        <v>CommunityProviderReferenceType</v>
       </c>
       <c r="C291" t="str">
-        <v>CommunityProviderLicenseReferenceType</v>
+        <v>CommunityProviderLicense</v>
       </c>
       <c r="D291" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E291" t="str">
-        <v>Identity of a CommunityProviderLicense.</v>
+        <v>Relates the license to the CommunityProvider.</v>
       </c>
     </row>
     <row r="292">
@@ -5432,7 +5432,7 @@
         <v>CommunityProviderReferenceType</v>
       </c>
       <c r="C292" t="str">
-        <v>CommunityProviderLicense</v>
+        <v>CommunityProviderLicenseIdentityType</v>
       </c>
       <c r="D292" t="str">
         <v/>
@@ -5441,24 +5441,25 @@
         <v>Relates the license to the CommunityProvider.</v>
       </c>
     </row>
-    <row r="293">
+    <row r="293" xml:space="preserve">
       <c r="A293" t="str">
-        <v>CommunityProviderReference</v>
+        <v>CompetencyLevel</v>
       </c>
       <c r="B293" t="str">
-        <v>CommunityProviderReferenceType</v>
+        <v>CompetencyLevelDescriptorReferenceType</v>
       </c>
       <c r="C293" t="str">
-        <v>CommunityProviderLicenseIdentityType</v>
-      </c>
-      <c r="D293" t="str">
-        <v/>
+        <v>Course</v>
+      </c>
+      <c r="D293" t="str" xml:space="preserve">
+        <v xml:space="preserve">minOccurs: 0
+maxOccurs: unbounded</v>
       </c>
       <c r="E293" t="str">
-        <v>Relates the license to the CommunityProvider.</v>
-      </c>
-    </row>
-    <row r="294" xml:space="preserve">
+        <v>The competency levels defined to rate the student for the course.</v>
+      </c>
+    </row>
+    <row r="294">
       <c r="A294" t="str">
         <v>CompetencyLevel</v>
       </c>
@@ -5466,14 +5467,13 @@
         <v>CompetencyLevelDescriptorReferenceType</v>
       </c>
       <c r="C294" t="str">
-        <v>Course</v>
-      </c>
-      <c r="D294" t="str" xml:space="preserve">
-        <v xml:space="preserve">minOccurs: 0
-maxOccurs: unbounded</v>
+        <v>StudentCompetencyObjective</v>
+      </c>
+      <c r="D294" t="str">
+        <v/>
       </c>
       <c r="E294" t="str">
-        <v>The competency levels defined to rate the student for the course.</v>
+        <v>The competency level assessed for the student for the referenced competency objective.</v>
       </c>
     </row>
     <row r="295">
@@ -5484,13 +5484,13 @@
         <v>CompetencyLevelDescriptorReferenceType</v>
       </c>
       <c r="C295" t="str">
-        <v>StudentCompetencyObjective</v>
+        <v>StudentGradebookEntry</v>
       </c>
       <c r="D295" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E295" t="str">
-        <v>The competency level assessed for the student for the referenced competency objective.</v>
+        <v>The CompetencyLevel assessed for the student for the referenced LearningObjective.</v>
       </c>
     </row>
     <row r="296">
@@ -5501,10 +5501,10 @@
         <v>CompetencyLevelDescriptorReferenceType</v>
       </c>
       <c r="C296" t="str">
-        <v>StudentGradebookEntry</v>
+        <v>StudentLearningObjective</v>
       </c>
       <c r="D296" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E296" t="str">
         <v>The CompetencyLevel assessed for the student for the referenced LearningObjective.</v>
@@ -5512,53 +5512,53 @@
     </row>
     <row r="297">
       <c r="A297" t="str">
-        <v>CompetencyLevel</v>
+        <v>CompetencyObjectiveId</v>
       </c>
       <c r="B297" t="str">
-        <v>CompetencyLevelDescriptorReferenceType</v>
+        <v>IdentificationCode</v>
       </c>
       <c r="C297" t="str">
-        <v>StudentLearningObjective</v>
+        <v>CompetencyObjective</v>
       </c>
       <c r="D297" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E297" t="str">
-        <v>The CompetencyLevel assessed for the student for the referenced LearningObjective.</v>
+        <v>The Identifier for the CompetencyObjective.</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="str">
-        <v>CompetencyObjectiveId</v>
+        <v>CompetencyObjectiveIdentity</v>
       </c>
       <c r="B298" t="str">
-        <v>IdentificationCode</v>
+        <v>CompetencyObjectiveIdentityType</v>
       </c>
       <c r="C298" t="str">
-        <v>CompetencyObjective</v>
+        <v>CompetencyObjectiveReferenceType</v>
       </c>
       <c r="D298" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E298" t="str">
-        <v>The Identifier for the CompetencyObjective.</v>
+        <v>Identity of a CompetencyObjective.</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="str">
-        <v>CompetencyObjectiveIdentity</v>
+        <v>CompetencyObjectiveReference</v>
       </c>
       <c r="B299" t="str">
-        <v>CompetencyObjectiveIdentityType</v>
+        <v>CompetencyObjectiveReferenceType</v>
       </c>
       <c r="C299" t="str">
-        <v>CompetencyObjectiveReferenceType</v>
+        <v>StudentCompetencyObjective</v>
       </c>
       <c r="D299" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E299" t="str">
-        <v>Identity of a CompetencyObjective.</v>
+        <v>The CompetencyObjective evaluated for the student.</v>
       </c>
     </row>
     <row r="300">
@@ -5569,7 +5569,7 @@
         <v>CompetencyObjectiveReferenceType</v>
       </c>
       <c r="C300" t="str">
-        <v>StudentCompetencyObjective</v>
+        <v>StudentCompetencyObjectiveIdentityType</v>
       </c>
       <c r="D300" t="str">
         <v/>
@@ -5580,44 +5580,44 @@
     </row>
     <row r="301">
       <c r="A301" t="str">
-        <v>CompetencyObjectiveReference</v>
+        <v>CongressionalDistrict</v>
       </c>
       <c r="B301" t="str">
-        <v>CompetencyObjectiveReferenceType</v>
+        <v>CongressionalDistrict</v>
       </c>
       <c r="C301" t="str">
-        <v>StudentCompetencyObjectiveIdentityType</v>
+        <v>Address</v>
       </c>
       <c r="D301" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E301" t="str">
-        <v>The CompetencyObjective evaluated for the student.</v>
+        <v>The congressional district in which an address is located.</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="str">
-        <v>CongressionalDistrict</v>
+        <v>ContactPriority</v>
       </c>
       <c r="B302" t="str">
-        <v>CongressionalDistrict</v>
+        <v>xs:int</v>
       </c>
       <c r="C302" t="str">
-        <v>Address</v>
+        <v>StudentParentAssociation</v>
       </c>
       <c r="D302" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E302" t="str">
-        <v>The congressional district in which an address is located.</v>
+        <v>The numeric order of the preferred sequence or priority of contact.</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="str">
-        <v>ContactPriority</v>
+        <v>ContactRestrictions</v>
       </c>
       <c r="B303" t="str">
-        <v>xs:int</v>
+        <v>ContactRestrictions</v>
       </c>
       <c r="C303" t="str">
         <v>StudentParentAssociation</v>
@@ -5626,24 +5626,24 @@
         <v>minOccurs: 0</v>
       </c>
       <c r="E303" t="str">
-        <v>The numeric order of the preferred sequence or priority of contact.</v>
+        <v>Restrictions for student and/or teacher contact with the individual (e.g., the student may not be picked up by the individual).</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" t="str">
-        <v>ContactRestrictions</v>
+        <v>ContactTitle</v>
       </c>
       <c r="B304" t="str">
-        <v>ContactRestrictions</v>
+        <v>ContactTitle</v>
       </c>
       <c r="C304" t="str">
-        <v>StudentParentAssociation</v>
+        <v>StaffEducationOrganizationContactAssociation</v>
       </c>
       <c r="D304" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E304" t="str">
-        <v>Restrictions for student and/or teacher contact with the individual (e.g., the student may not be picked up by the individual).</v>
+        <v>The title of the contact in the context of the EducationOrganization.</v>
       </c>
     </row>
     <row r="305">
@@ -5654,7 +5654,7 @@
         <v>ContactTitle</v>
       </c>
       <c r="C305" t="str">
-        <v>StaffEducationOrganizationContactAssociation</v>
+        <v>StaffEducationOrganizationContactAssociationIdentityType</v>
       </c>
       <c r="D305" t="str">
         <v/>
@@ -5665,53 +5665,53 @@
     </row>
     <row r="306">
       <c r="A306" t="str">
-        <v>ContactTitle</v>
+        <v>ContactType</v>
       </c>
       <c r="B306" t="str">
-        <v>ContactTitle</v>
+        <v>ContactTypeDescriptorReferenceType</v>
       </c>
       <c r="C306" t="str">
-        <v>StaffEducationOrganizationContactAssociationIdentityType</v>
+        <v>StaffEducationOrganizationContactAssociation</v>
       </c>
       <c r="D306" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E306" t="str">
-        <v>The title of the contact in the context of the EducationOrganization.</v>
+        <v>Indicates the type for the contact information.</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" t="str">
-        <v>ContactType</v>
+        <v>ContentClass</v>
       </c>
       <c r="B307" t="str">
-        <v>ContactTypeDescriptorReferenceType</v>
+        <v>ContentClassDescriptorReferenceType</v>
       </c>
       <c r="C307" t="str">
-        <v>StaffEducationOrganizationContactAssociation</v>
+        <v>LearningResource</v>
       </c>
       <c r="D307" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E307" t="str">
-        <v>Indicates the type for the contact information.</v>
+        <v>The predominate type or kind characterizing the learning resource.</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" t="str">
-        <v>ContentClass</v>
+        <v>ContentIdentifier</v>
       </c>
       <c r="B308" t="str">
-        <v>ContentClassDescriptorReferenceType</v>
+        <v>ContentIdentifier</v>
       </c>
       <c r="C308" t="str">
-        <v>LearningResource</v>
+        <v>EducationContent</v>
       </c>
       <c r="D308" t="str">
         <v/>
       </c>
       <c r="E308" t="str">
-        <v>The predominate type or kind characterizing the learning resource.</v>
+        <v>A unique identifier for the EducationContent.</v>
       </c>
     </row>
     <row r="309">
@@ -5722,7 +5722,7 @@
         <v>ContentIdentifier</v>
       </c>
       <c r="C309" t="str">
-        <v>EducationContent</v>
+        <v>EducationContentIdentityType</v>
       </c>
       <c r="D309" t="str">
         <v/>
@@ -5733,19 +5733,19 @@
     </row>
     <row r="310">
       <c r="A310" t="str">
-        <v>ContentIdentifier</v>
+        <v>ContentStandard</v>
       </c>
       <c r="B310" t="str">
-        <v>ContentIdentifier</v>
+        <v>ContentStandard</v>
       </c>
       <c r="C310" t="str">
-        <v>EducationContentIdentityType</v>
+        <v>Assessment</v>
       </c>
       <c r="D310" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E310" t="str">
-        <v>A unique identifier for the EducationContent.</v>
+        <v>An indication as to whether an assessment conforms to a standard (e.g., local standard, statewide standard, regional standard, association standard).</v>
       </c>
     </row>
     <row r="311">
@@ -5756,13 +5756,13 @@
         <v>ContentStandard</v>
       </c>
       <c r="C311" t="str">
-        <v>Assessment</v>
+        <v>LearningObjective</v>
       </c>
       <c r="D311" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E311" t="str">
-        <v>An indication as to whether an assessment conforms to a standard (e.g., local standard, statewide standard, regional standard, association standard).</v>
+        <v>A reference to the type of content standard (e.g., state, national)</v>
       </c>
     </row>
     <row r="312">
@@ -5773,13 +5773,13 @@
         <v>ContentStandard</v>
       </c>
       <c r="C312" t="str">
-        <v>LearningObjective</v>
+        <v>LearningStandard</v>
       </c>
       <c r="D312" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E312" t="str">
-        <v>A reference to the type of content standard (e.g., state, national)</v>
+        <v>The content standard from which the LearningStandard was derived.</v>
       </c>
     </row>
     <row r="313">
@@ -5790,10 +5790,10 @@
         <v>ContentStandard</v>
       </c>
       <c r="C313" t="str">
-        <v>LearningStandard</v>
+        <v>LearningStandardLookupType</v>
       </c>
       <c r="D313" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E313" t="str">
         <v>The content standard from which the LearningStandard was derived.</v>
@@ -5801,70 +5801,70 @@
     </row>
     <row r="314">
       <c r="A314" t="str">
-        <v>ContentStandard</v>
+        <v>ContentStandardName</v>
       </c>
       <c r="B314" t="str">
-        <v>ContentStandard</v>
+        <v>ContentStandardName</v>
       </c>
       <c r="C314" t="str">
-        <v>LearningStandardLookupType</v>
+        <v>LearningStandardIdentificationCode</v>
       </c>
       <c r="D314" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E314" t="str">
-        <v>The content standard from which the LearningStandard was derived.</v>
+        <v>The name of the content standard, for example Common Core.</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" t="str">
-        <v>ContentStandardName</v>
+        <v>ContinuationOfServicesReason</v>
       </c>
       <c r="B315" t="str">
-        <v>ContentStandardName</v>
+        <v>ContinuationOfServicesReasonDescriptorReferenceType</v>
       </c>
       <c r="C315" t="str">
-        <v>LearningStandardIdentificationCode</v>
+        <v>StudentMigrantEducationProgramAssociation</v>
       </c>
       <c r="D315" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E315" t="str">
-        <v>The name of the content standard, for example Common Core.</v>
+        <v>The "continuation of services" provision found in Section 1304(e) of the statute provides that (1) a child who ceases to be a migratory child during a school term shall be eligible for services until the end of such term; (2) a child who is no longer a migratory child may continue to receive services for one additional school year, but only if comparable services are not available through other programs; and (3) secondary school students who were eligible for services in secondary school may continue to be served through credit accrual programs until graduation. Only students who received services at any time during their 36 month eligibility period may continue to receive services (not necessarily the same service).</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="str">
-        <v>ContinuationOfServicesReason</v>
+        <v>ContractedStaffIdentity</v>
       </c>
       <c r="B316" t="str">
-        <v>ContinuationOfServicesReasonDescriptorReferenceType</v>
+        <v>ContractedStaffIdentityType</v>
       </c>
       <c r="C316" t="str">
-        <v>StudentMigrantEducationProgramAssociation</v>
+        <v>ContractedStaffReferenceType</v>
       </c>
       <c r="D316" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E316" t="str">
-        <v>The "continuation of services" provision found in Section 1304(e) of the statute provides that (1) a child who ceases to be a migratory child during a school term shall be eligible for services until the end of such term; (2) a child who is no longer a migratory child may continue to receive services for one additional school year, but only if comparable services are not available through other programs; and (3) secondary school students who were eligible for services in secondary school may continue to be served through credit accrual programs until graduation. Only students who received services at any time during their 36 month eligibility period may continue to receive services (not necessarily the same service).</v>
+        <v>Identity of a ContractedStaff.</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="str">
-        <v>ContractedStaffIdentity</v>
+        <v>CorrectResponse</v>
       </c>
       <c r="B317" t="str">
-        <v>ContractedStaffIdentityType</v>
+        <v>CorrectResponse</v>
       </c>
       <c r="C317" t="str">
-        <v>ContractedStaffReferenceType</v>
+        <v>AssessmentItem</v>
       </c>
       <c r="D317" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E317" t="str">
-        <v>Identity of a ContractedStaff.</v>
+        <v>The correct response for the AssessmentItem.</v>
       </c>
     </row>
     <row r="318">
@@ -5872,41 +5872,41 @@
         <v>CorrectResponse</v>
       </c>
       <c r="B318" t="str">
-        <v>CorrectResponse</v>
+        <v>xs:boolean</v>
       </c>
       <c r="C318" t="str">
-        <v>AssessmentItem</v>
+        <v>PossibleResponse</v>
       </c>
       <c r="D318" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E318" t="str">
-        <v>The correct response for the AssessmentItem.</v>
+        <v>Indicates the response is correct.</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="str">
-        <v>CorrectResponse</v>
+        <v>Cost</v>
       </c>
       <c r="B319" t="str">
-        <v>xs:boolean</v>
+        <v>Currency</v>
       </c>
       <c r="C319" t="str">
-        <v>PossibleResponse</v>
+        <v>EducationContent</v>
       </c>
       <c r="D319" t="str">
         <v>minOccurs: 0</v>
       </c>
       <c r="E319" t="str">
-        <v>Indicates the response is correct.</v>
+        <v>An amount that has to be paid or spent to buy or obtain the EducationContent.</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="str">
-        <v>Cost</v>
+        <v>CostRate</v>
       </c>
       <c r="B320" t="str">
-        <v>Currency</v>
+        <v>CostRateDescriptorReferenceType</v>
       </c>
       <c r="C320" t="str">
         <v>EducationContent</v>
@@ -5915,58 +5915,62 @@
         <v>minOccurs: 0</v>
       </c>
       <c r="E320" t="str">
-        <v>An amount that has to be paid or spent to buy or obtain the EducationContent.</v>
+        <v>The rate by which the cost applies.</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="str">
-        <v>CostRate</v>
+        <v>Country</v>
       </c>
       <c r="B321" t="str">
-        <v>CostRateDescriptorReferenceType</v>
+        <v>CountryDescriptorReferenceType</v>
       </c>
       <c r="C321" t="str">
-        <v>EducationContent</v>
+        <v>InternationalAddress</v>
       </c>
       <c r="D321" t="str">
-        <v>minOccurs: 0</v>
+        <v/>
       </c>
       <c r="E321" t="str">
-        <v>The rate by which the cost applies.</v>
+        <v>The name of the country. It is strongly recommended that entries use only ISO 3166 2-letter country codes.</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="str">
-        <v>Country</v>
+        <v>CountyFIPSCode</v>
       </c>
       <c r="B322" t="str">
-        <v>CountryDescriptorReferenceType</v>
+        <v>CountyFIPSCode</v>
       </c>
       <c r="C322" t="str">
-        <v>InternationalAddress</v>
+        <v>Address</v>
       </c>
       <c r="D322" t="str">
-        <v/>
+        <v>minOccurs: 0</v>
       </c>
       <c r="E322" t="str">
-        <v>The name of the country. It is strongly recommended that entries use only ISO 3166 2-letter country codes.</v>
-      </c>
-    </row>
-    <row r="323">
+        <v>The Federal Information Processing Standards (FIPS) numeric code for the county issued by the National Institute of Standards and Technology (NIST). Counties are considered to be the "first-order subdivisions" of each State and statistically equivalent entity, regardless of their local designations (county, parish, borough, etc.) Counties in different States will have the same code. A unique county number is created when combined with the 2-digit FIPS State Code.</v>
+      </c>
+    </row>
+    <row r="323" xml:space="preserve">
       <c r="A323" t="str">
-        <v>CountyFIPSCode</v>
+        <v>CourseAttemptResult</v>
       </c>
       <c r="B323" t="str">
-        <v>CountyFIPSCode</v>
+        <v>CourseAttemptResultDescriptorReferenceType</v>
       </c>
       <c r="C323" t="str">
-        <v>Address</v>
+        <v>CourseTranscript</v>
       </c>
       <c r="D323" t="str">
-        <v>minOccurs: 0</v>
-      </c>
-      <c r="E323" t="str">
-        <v>The Federal Information Processing Standards (FIPS) numeric code for the county issued by the National Institute of Standards and Technology (NIST). Counties are considered to be the "first-order subdivisions" of each State and statistically equivalent entity, regardless of their local designations (county, parish, borough, etc.) Counties in different States will have the same code. A unique county number is created when combined with the 2-digit FIPS State Code.</v>
+        <v/>
+      </c>
+      <c r="E323" t="str" xml:space="preserve">
+        <v xml:space="preserve">The result from the student's attempt to take the course, for example:_x000d_
+        Pass_x000d_
+        Fail_x000d_
+        Incomplete_x000d_
+        Withdrawn.</v>
       </c>
     </row>
     <row r="324" xml:space="preserve">
@@ -5977,7 +5981,7 @@
         <v>CourseAttemptResultDescriptorReferenceType</v>
       </c>
       <c r="C324" t="str">
-        <v>CourseTranscript</v>
+        <v>CourseTranscriptIdentityType</v>
       </c>
       <c r="D324" t="str">
         <v/>
@@ -5998,7 +6002,7 @@
         <v>CourseAttemptResultDescriptorReferenceType</v>
       </c>
       <c r="C325" t="str">
-        <v>CourseTranscriptIdentityType</v>
+        <v>EXTENSION-CourseTranscript</v>
       </c>
       <c r="D325" t="str">
         <v/>
@@ -6019,7 +6023,7 @@
         <v>CourseAttemptResultDescriptorReferenceType</v>
       </c>
       <c r="C326" t="str">
-        <v>EXTENSION-CourseTranscript</v>
+        <v>EXTENSION-CourseTranscriptIdentityType</v>
       </c>
       <c r="D326" t="str">
         <v/>
@@ -6032,25 +6036,21 @@
         Withdrawn.</v>
       </c>
     </row>
-    <row r="327" xml:space="preserve">
+    <row r="327">
       <c r="A327" t="str">
-        <v>CourseAttemptResult</v>
+        <v>CourseCatalogURL</v>
       </c>
       <c r="B327" t="str">
-        <v>CourseAttemptResultDescriptorReferenceType</v>
+        <v>CourseCatalogURL</v>
       </c>
       <c r="C327" t="str">
-        <v>EXTENSION-CourseTranscriptIdentityType</v>
+        <v>CourseTranscript</v>
       </c>
       <c r="D327" t="str">
-        <v/>
-      </c>
-      <c r="E327" t="str" xml:space="preserve">
-        <v xml:space="preserve">The result from the student's attempt to take the course, for example:_x000d_
-        Pass_x000d_
-        Fail_x000d_
-        Incomplete_x000d_
-        Withdrawn.</v>
+        <v>minOccurs: 0</v>
+      </c>
+      <c r="E327" t="str">
+        <v>The URL for the course catalog that defines the course identification code.</v>
       </c>
     </row>
     <row r="328">
@@ -6061,7 +6061,7 @@
         <v>CourseCatalogURL</v>
       </c>
       <c r="C328" t="str">
-        <v>CourseTranscript</v>
+        <v>CourseIdentificationCode</v>
       </c>
       <c r="D328" t="str">
         <v>minOccurs: 0</v>
@@ -6078,7 +6078,7 @@
         <v>CourseCatalogURL</v>
       </c>
       <c r="C329" t="str">
-        <v>CourseIdentificationCode</v>
+        <v>EXTENSION-CourseTranscript</v>
       </c>
       <c r="D329" t="str">
         <v>minOccurs: 0</v>
@@ -6095,7 +6095,7 @@
         <v>CourseCatalogURL</v>
       </c>
       <c r="C330" t="str">
-        <v>EXTENSION-CourseTranscript</v>
+        <v>EXTENSION-AlternativeCourseIdentificationCode</v>
       </c>
       <c r="D330" t="str">
         <v>minOccurs: 0</v>
